--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1056008.71932337</v>
+        <v>1052150.56527699</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6025711.324761788</v>
+        <v>6025711.324761787</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4246054.994503134</v>
+        <v>4246054.994503133</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>-1.346052158623934e-12</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>347.075042132518</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>22.85836364958017</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T11" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1536,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.0800288950615</v>
       </c>
       <c r="H13" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>142.7428278113418</v>
       </c>
       <c r="T13" t="n">
-        <v>239.7660459136613</v>
+        <v>221.3663227993963</v>
       </c>
       <c r="U13" t="n">
         <v>275.6020161941874</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>51.07725198485025</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>201.49422727352</v>
       </c>
       <c r="F14" t="n">
-        <v>419.9997172495347</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>43.87040842116372</v>
+        <v>43.87040842116371</v>
       </c>
       <c r="T15" t="n">
         <v>124.7645818372411</v>
@@ -1767,22 +1767,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>86.8019304329716</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>126.7551516260366</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>239.7660459136613</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>417.1652840347417</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.36371861119832</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>312.4845934331478</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>43.87040842116372</v>
+        <v>43.87040842116371</v>
       </c>
       <c r="T18" t="n">
         <v>124.7645818372411</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0800288950615</v>
+        <v>97.52270106034092</v>
       </c>
       <c r="H19" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>49.2569662166354</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>239.7660459136613</v>
       </c>
       <c r="U19" t="n">
         <v>275.6020161941874</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2083,22 +2083,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>156.2822665639188</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T20" t="n">
-        <v>192.9229006776485</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H21" t="n">
-        <v>31.46494373506148</v>
+        <v>31.46494373506147</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>43.87040842116372</v>
+        <v>43.8704084211637</v>
       </c>
       <c r="T21" t="n">
         <v>124.7645818372411</v>
@@ -2250,16 +2250,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.05114379168071</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.7660459136613</v>
       </c>
       <c r="U22" t="n">
         <v>275.6020161941874</v>
@@ -2304,10 +2304,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>165.5205546824013</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.5602204549507</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41.04946952440731</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
@@ -2326,7 +2326,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2335,7 +2335,7 @@
         <v>395.4770341286055</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>61.64661695553138</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H24" t="n">
-        <v>31.46494373506148</v>
+        <v>31.46494373506147</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>43.87040842116372</v>
+        <v>43.8704084211637</v>
       </c>
       <c r="T24" t="n">
         <v>124.7645818372411</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7428278113423</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T25" t="n">
         <v>239.7660459136613</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6020161941874</v>
+        <v>275.6020161941873</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -2563,16 +2563,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>299.3974716950199</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>39.36371861119832</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>91.26521924533657</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H27" t="n">
-        <v>31.46494373506148</v>
+        <v>31.46494373506147</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>43.87040842116372</v>
+        <v>43.8704084211637</v>
       </c>
       <c r="T27" t="n">
         <v>124.7645818372411</v>
@@ -2769,7 +2769,7 @@
         <v>239.7660459136613</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6020161941874</v>
+        <v>275.6020161941873</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>17.68620262366911</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T29" t="n">
-        <v>175.7978667328264</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H30" t="n">
-        <v>31.46494373506148</v>
+        <v>31.46494373506147</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>43.87040842116372</v>
+        <v>43.8704084211637</v>
       </c>
       <c r="T30" t="n">
         <v>124.7645818372411</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7428278113418</v>
+        <v>142.7428278113419</v>
       </c>
       <c r="T31" t="n">
         <v>239.7660459136613</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6020161941874</v>
+        <v>275.6020161941873</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>357.9534469812528</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
@@ -3046,7 +3046,7 @@
         <v>395.4770341286055</v>
       </c>
       <c r="H32" t="n">
-        <v>45.37352021953035</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3125,7 +3125,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H33" t="n">
-        <v>31.46494373506148</v>
+        <v>31.46494373506147</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>43.87040842116372</v>
+        <v>43.8704084211637</v>
       </c>
       <c r="T33" t="n">
         <v>124.7645818372411</v>
@@ -3243,7 +3243,7 @@
         <v>239.7660459136613</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6020161941874</v>
+        <v>275.6020161941873</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>266.7106435996681</v>
@@ -3319,22 +3319,22 @@
         <v>39.36371861119831</v>
       </c>
       <c r="T35" t="n">
-        <v>209.5194549705165</v>
+        <v>53.89336970773255</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>210.8189735613743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H36" t="n">
-        <v>31.46494373506148</v>
+        <v>31.46494373506147</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>43.87040842116371</v>
+        <v>43.8704084211637</v>
       </c>
       <c r="T36" t="n">
         <v>124.7645818372411</v>
@@ -3429,7 +3429,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>20.41563750683677</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>38.30611490797912</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>130.898461692684</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>39.36371861119831</v>
       </c>
       <c r="T38" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>277.1618956096887</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>147.6445500555168</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3599,7 +3599,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H39" t="n">
-        <v>31.46494373506148</v>
+        <v>31.46494373506147</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>43.87040842116371</v>
+        <v>43.8704084211637</v>
       </c>
       <c r="T39" t="n">
         <v>124.7645818372411</v>
@@ -3666,13 +3666,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>86.80193043297206</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.7660459136613</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>224.0860136185704</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.36371861119831</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.1962217630434</v>
+        <v>187.0082686667151</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H42" t="n">
-        <v>31.46494373506148</v>
+        <v>31.46494373506147</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>43.87040842116371</v>
+        <v>43.8704084211637</v>
       </c>
       <c r="T42" t="n">
         <v>124.7645818372411</v>
@@ -3900,10 +3900,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>140.2352523933834</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>86.80193043297206</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.7660459136613</v>
       </c>
       <c r="U43" t="n">
         <v>275.6020161941874</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H44" t="n">
-        <v>149.8415695395397</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.36371861119831</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4775341414042</v>
+        <v>215.1199898329944</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>83.51100076230425</v>
       </c>
       <c r="H45" t="n">
-        <v>31.46494373506148</v>
+        <v>31.46494373506147</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.87040842116371</v>
+        <v>43.8704084211637</v>
       </c>
       <c r="T45" t="n">
         <v>124.7645818372411</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>4.768104884556022</v>
+        <v>158.1728550857609</v>
       </c>
       <c r="H46" t="n">
         <v>130.898461692684</v>
       </c>
       <c r="I46" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>275.6020161941874</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1768.090339433929</v>
+        <v>1272.610480600162</v>
       </c>
       <c r="C11" t="n">
-        <v>1768.090339433929</v>
+        <v>834.4680077835856</v>
       </c>
       <c r="D11" t="n">
-        <v>1332.180554608373</v>
+        <v>398.5582229580301</v>
       </c>
       <c r="E11" t="n">
-        <v>898.4058097666684</v>
+        <v>47.977372319123</v>
       </c>
       <c r="F11" t="n">
-        <v>470.5383801758762</v>
+        <v>47.977372319123</v>
       </c>
       <c r="G11" t="n">
-        <v>71.06662853082014</v>
+        <v>47.977372319123</v>
       </c>
       <c r="H11" t="n">
         <v>47.977372319123</v>
       </c>
       <c r="I11" t="n">
-        <v>120.3463876521527</v>
+        <v>120.3463876521526</v>
       </c>
       <c r="J11" t="n">
-        <v>280.5668724472632</v>
+        <v>280.5668724472631</v>
       </c>
       <c r="K11" t="n">
-        <v>520.6958462790551</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L11" t="n">
-        <v>818.5970719737417</v>
+        <v>818.5970719737414</v>
       </c>
       <c r="M11" t="n">
         <v>1150.069584980171</v>
@@ -5068,25 +5068,25 @@
         <v>2398.86861595615</v>
       </c>
       <c r="S11" t="n">
-        <v>2398.86861595615</v>
+        <v>2359.107284025647</v>
       </c>
       <c r="T11" t="n">
-        <v>2187.232802854618</v>
+        <v>2359.107284025647</v>
       </c>
       <c r="U11" t="n">
-        <v>2187.232802854618</v>
+        <v>2100.039067721198</v>
       </c>
       <c r="V11" t="n">
-        <v>2187.232802854618</v>
+        <v>2100.039067721198</v>
       </c>
       <c r="W11" t="n">
-        <v>2187.232802854618</v>
+        <v>2100.039067721198</v>
       </c>
       <c r="X11" t="n">
-        <v>1768.090339433929</v>
+        <v>1680.896604300509</v>
       </c>
       <c r="Y11" t="n">
-        <v>1768.090339433929</v>
+        <v>1272.610480600162</v>
       </c>
     </row>
     <row r="12">
@@ -5123,13 +5123,13 @@
         <v>178.1789471685047</v>
       </c>
       <c r="K12" t="n">
-        <v>341.27756175221</v>
+        <v>314.1238438647551</v>
       </c>
       <c r="L12" t="n">
-        <v>560.5837766791823</v>
+        <v>533.4300587917272</v>
       </c>
       <c r="M12" t="n">
-        <v>816.5037854930633</v>
+        <v>789.3500676056083</v>
       </c>
       <c r="N12" t="n">
         <v>1052.04351753904</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>922.7500239851709</v>
+        <v>720.9023822978417</v>
       </c>
       <c r="C13" t="n">
-        <v>750.1883124683958</v>
+        <v>548.3406707810666</v>
       </c>
       <c r="D13" t="n">
-        <v>584.3103196699185</v>
+        <v>382.4626779825893</v>
       </c>
       <c r="E13" t="n">
-        <v>584.3103196699185</v>
+        <v>212.7046742333265</v>
       </c>
       <c r="F13" t="n">
-        <v>407.6032656316747</v>
+        <v>212.7046742333265</v>
       </c>
       <c r="G13" t="n">
-        <v>242.8759637174712</v>
+        <v>47.977372319123</v>
       </c>
       <c r="H13" t="n">
-        <v>110.6552953410227</v>
+        <v>47.977372319123</v>
       </c>
       <c r="I13" t="n">
         <v>47.977372319123</v>
       </c>
       <c r="J13" t="n">
-        <v>107.8447180416543</v>
+        <v>194.4244032063442</v>
       </c>
       <c r="K13" t="n">
-        <v>206.225157585688</v>
+        <v>567.5632973215135</v>
       </c>
       <c r="L13" t="n">
-        <v>332.1182490022081</v>
+        <v>1111.666270505995</v>
       </c>
       <c r="M13" t="n">
-        <v>924.3387295679233</v>
+        <v>1244.402883890797</v>
       </c>
       <c r="N13" t="n">
-        <v>1496.177966124998</v>
+        <v>1373.983317290227</v>
       </c>
       <c r="O13" t="n">
-        <v>1860.95855161643</v>
+        <v>1692.765776752098</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.87963711211</v>
+        <v>2142.686862247778</v>
       </c>
       <c r="Q13" t="n">
         <v>2381.785914783479</v>
@@ -5229,22 +5229,22 @@
         <v>2254.683941399239</v>
       </c>
       <c r="T13" t="n">
-        <v>2012.496016233924</v>
+        <v>2031.081595137222</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.110141290301</v>
+        <v>1752.695720193599</v>
       </c>
       <c r="V13" t="n">
-        <v>1447.154633160731</v>
+        <v>1465.740212064029</v>
       </c>
       <c r="W13" t="n">
-        <v>1395.56144933765</v>
+        <v>1193.713807650321</v>
       </c>
       <c r="X13" t="n">
-        <v>1150.169694671063</v>
+        <v>948.3220529837333</v>
       </c>
       <c r="Y13" t="n">
-        <v>922.7500239851709</v>
+        <v>720.9023822978417</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1574.870697946493</v>
+        <v>1553.426582050552</v>
       </c>
       <c r="C14" t="n">
-        <v>1574.870697946493</v>
+        <v>1115.284109233976</v>
       </c>
       <c r="D14" t="n">
-        <v>1574.870697946493</v>
+        <v>679.3743244084203</v>
       </c>
       <c r="E14" t="n">
-        <v>1141.095953104788</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F14" t="n">
-        <v>716.8538144688943</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G14" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H14" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I14" t="n">
-        <v>120.3463876521519</v>
+        <v>120.3463876521523</v>
       </c>
       <c r="J14" t="n">
-        <v>280.5668724472624</v>
+        <v>280.5668724472629</v>
       </c>
       <c r="K14" t="n">
-        <v>520.6958462790542</v>
+        <v>520.6958462790548</v>
       </c>
       <c r="L14" t="n">
-        <v>818.5970719737409</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M14" t="n">
-        <v>1150.06958498017</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N14" t="n">
         <v>1486.905669790887</v>
       </c>
       <c r="O14" t="n">
-        <v>1804.970433130814</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P14" t="n">
-        <v>2076.431349953069</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q14" t="n">
         <v>2280.287193219309</v>
@@ -5317,13 +5317,13 @@
         <v>2398.868615956149</v>
       </c>
       <c r="W14" t="n">
-        <v>1994.013161367182</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="X14" t="n">
-        <v>1574.870697946493</v>
+        <v>1979.72615253546</v>
       </c>
       <c r="Y14" t="n">
-        <v>1574.870697946493</v>
+        <v>1979.72615253546</v>
       </c>
     </row>
     <row r="15">
@@ -5348,31 +5348,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G15" t="n">
-        <v>79.76014376868002</v>
+        <v>79.76014376868004</v>
       </c>
       <c r="H15" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I15" t="n">
-        <v>82.75272404474123</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J15" t="n">
-        <v>178.1789471685046</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K15" t="n">
         <v>341.27756175221</v>
       </c>
       <c r="L15" t="n">
-        <v>560.5837766791822</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M15" t="n">
-        <v>816.5037854930631</v>
+        <v>789.3500676056083</v>
       </c>
       <c r="N15" t="n">
         <v>1052.04351753904</v>
       </c>
       <c r="O15" t="n">
-        <v>1292.356702896953</v>
+        <v>1292.356702896952</v>
       </c>
       <c r="P15" t="n">
         <v>1485.229220531343</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>510.4981846755555</v>
+        <v>654.6828592324669</v>
       </c>
       <c r="C16" t="n">
-        <v>510.4981846755555</v>
+        <v>482.1211477156918</v>
       </c>
       <c r="D16" t="n">
-        <v>510.4981846755555</v>
+        <v>394.4424301066296</v>
       </c>
       <c r="E16" t="n">
-        <v>340.7401809262927</v>
+        <v>224.6844263573668</v>
       </c>
       <c r="F16" t="n">
-        <v>340.7401809262927</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G16" t="n">
-        <v>176.0128790120892</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H16" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I16" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J16" t="n">
         <v>194.4244032063441</v>
@@ -5463,25 +5463,25 @@
         <v>2398.868615956149</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.683941399238</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T16" t="n">
-        <v>2012.496016233923</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.1101412903</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V16" t="n">
-        <v>1447.15463316073</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W16" t="n">
-        <v>1175.128228747022</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X16" t="n">
-        <v>929.7364740804344</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y16" t="n">
-        <v>702.3168033945426</v>
+        <v>846.501477951454</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1617.166710072912</v>
+        <v>1355.80437480296</v>
       </c>
       <c r="C17" t="n">
-        <v>1179.024237256335</v>
+        <v>917.6619019863833</v>
       </c>
       <c r="D17" t="n">
-        <v>1179.024237256335</v>
+        <v>481.7521171608278</v>
       </c>
       <c r="E17" t="n">
-        <v>745.2494924146305</v>
+        <v>47.977372319123</v>
       </c>
       <c r="F17" t="n">
-        <v>317.3820628238382</v>
+        <v>47.977372319123</v>
       </c>
       <c r="G17" t="n">
-        <v>317.3820628238382</v>
+        <v>47.977372319123</v>
       </c>
       <c r="H17" t="n">
-        <v>47.97737231912298</v>
+        <v>47.977372319123</v>
       </c>
       <c r="I17" t="n">
-        <v>120.3463876521521</v>
+        <v>120.3463876521527</v>
       </c>
       <c r="J17" t="n">
-        <v>280.5668724472624</v>
+        <v>280.5668724472632</v>
       </c>
       <c r="K17" t="n">
-        <v>520.6958462790542</v>
+        <v>520.6958462790551</v>
       </c>
       <c r="L17" t="n">
-        <v>818.5970719737406</v>
+        <v>818.5970719737417</v>
       </c>
       <c r="M17" t="n">
-        <v>1150.06958498017</v>
+        <v>1150.069584980171</v>
       </c>
       <c r="N17" t="n">
-        <v>1486.905669790887</v>
+        <v>1486.905669790888</v>
       </c>
       <c r="O17" t="n">
-        <v>1804.970433130814</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P17" t="n">
-        <v>2076.431349953069</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q17" t="n">
-        <v>2280.287193219309</v>
+        <v>2280.28719321931</v>
       </c>
       <c r="R17" t="n">
-        <v>2398.868615956149</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="S17" t="n">
-        <v>2359.107284025646</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="T17" t="n">
-        <v>2359.107284025646</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="U17" t="n">
-        <v>2359.107284025646</v>
+        <v>2139.800399651701</v>
       </c>
       <c r="V17" t="n">
-        <v>2359.107284025646</v>
+        <v>1777.183449585527</v>
       </c>
       <c r="W17" t="n">
-        <v>2043.46628055782</v>
+        <v>1777.183449585527</v>
       </c>
       <c r="X17" t="n">
-        <v>2043.46628055782</v>
+        <v>1777.183449585527</v>
       </c>
       <c r="Y17" t="n">
-        <v>2043.46628055782</v>
+        <v>1777.183449585527</v>
       </c>
     </row>
     <row r="18">
@@ -5585,31 +5585,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G18" t="n">
-        <v>79.76014376868002</v>
+        <v>79.76014376868005</v>
       </c>
       <c r="H18" t="n">
-        <v>47.97737231912298</v>
+        <v>47.977372319123</v>
       </c>
       <c r="I18" t="n">
-        <v>82.75272404474123</v>
+        <v>82.75272404474126</v>
       </c>
       <c r="J18" t="n">
-        <v>178.1789471685046</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K18" t="n">
         <v>341.27756175221</v>
       </c>
       <c r="L18" t="n">
-        <v>560.5837766791822</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M18" t="n">
-        <v>816.5037854930631</v>
+        <v>789.3500676056083</v>
       </c>
       <c r="N18" t="n">
         <v>1052.04351753904</v>
       </c>
       <c r="O18" t="n">
-        <v>1292.356702896953</v>
+        <v>1292.356702896952</v>
       </c>
       <c r="P18" t="n">
         <v>1485.229220531343</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.508027734434</v>
+        <v>654.6828592324673</v>
       </c>
       <c r="C19" t="n">
-        <v>919.9463162176586</v>
+        <v>482.1211477156922</v>
       </c>
       <c r="D19" t="n">
-        <v>754.0683234191813</v>
+        <v>316.243154917215</v>
       </c>
       <c r="E19" t="n">
-        <v>584.3103196699185</v>
+        <v>146.4851511679522</v>
       </c>
       <c r="F19" t="n">
-        <v>407.6032656316747</v>
+        <v>146.4851511679522</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8759637174711</v>
+        <v>47.977372319123</v>
       </c>
       <c r="H19" t="n">
-        <v>110.6552953410227</v>
+        <v>47.977372319123</v>
       </c>
       <c r="I19" t="n">
-        <v>47.97737231912298</v>
+        <v>47.977372319123</v>
       </c>
       <c r="J19" t="n">
-        <v>194.4244032063441</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K19" t="n">
-        <v>292.8048427503778</v>
+        <v>480.9836121568235</v>
       </c>
       <c r="L19" t="n">
-        <v>836.9078159348591</v>
+        <v>1025.086585341305</v>
       </c>
       <c r="M19" t="n">
-        <v>969.6444293196613</v>
+        <v>1157.823198726107</v>
       </c>
       <c r="N19" t="n">
-        <v>1541.483665876736</v>
+        <v>1287.403632125537</v>
       </c>
       <c r="O19" t="n">
-        <v>2080.841418547794</v>
+        <v>1826.761384796595</v>
       </c>
       <c r="P19" t="n">
-        <v>2183.255610073133</v>
+        <v>2276.682470292275</v>
       </c>
       <c r="Q19" t="n">
-        <v>2381.785914783478</v>
+        <v>2381.785914783479</v>
       </c>
       <c r="R19" t="n">
-        <v>2398.868615956149</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="S19" t="n">
-        <v>2349.114104626214</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="T19" t="n">
-        <v>2349.114104626214</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U19" t="n">
-        <v>2070.728229682591</v>
+        <v>1878.294815847212</v>
       </c>
       <c r="V19" t="n">
-        <v>1783.772721553021</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W19" t="n">
-        <v>1511.746317139313</v>
+        <v>1319.312903303934</v>
       </c>
       <c r="X19" t="n">
-        <v>1511.746317139313</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.326646453421</v>
+        <v>846.5014779514545</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>751.1568076655431</v>
+        <v>1513.66525012005</v>
       </c>
       <c r="C20" t="n">
-        <v>751.1568076655431</v>
+        <v>1075.522777303473</v>
       </c>
       <c r="D20" t="n">
-        <v>751.1568076655431</v>
+        <v>639.6129924779175</v>
       </c>
       <c r="E20" t="n">
-        <v>317.3820628238382</v>
+        <v>205.8382476362127</v>
       </c>
       <c r="F20" t="n">
-        <v>317.3820628238382</v>
+        <v>47.977372319123</v>
       </c>
       <c r="G20" t="n">
-        <v>317.3820628238382</v>
+        <v>47.977372319123</v>
       </c>
       <c r="H20" t="n">
-        <v>47.97737231912299</v>
+        <v>47.977372319123</v>
       </c>
       <c r="I20" t="n">
-        <v>120.3463876521529</v>
+        <v>120.3463876521522</v>
       </c>
       <c r="J20" t="n">
-        <v>280.5668724472633</v>
+        <v>280.5668724472628</v>
       </c>
       <c r="K20" t="n">
-        <v>520.6958462790551</v>
+        <v>520.6958462790546</v>
       </c>
       <c r="L20" t="n">
-        <v>818.5970719737415</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M20" t="n">
         <v>1150.069584980171</v>
       </c>
       <c r="N20" t="n">
-        <v>1486.905669790887</v>
+        <v>1486.905669790888</v>
       </c>
       <c r="O20" t="n">
         <v>1804.970433130815</v>
@@ -5776,28 +5776,28 @@
         <v>2280.28719321931</v>
       </c>
       <c r="R20" t="n">
-        <v>2398.868615956149</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="S20" t="n">
-        <v>2398.868615956149</v>
+        <v>2359.107284025647</v>
       </c>
       <c r="T20" t="n">
-        <v>2203.99699911004</v>
+        <v>2359.107284025647</v>
       </c>
       <c r="U20" t="n">
-        <v>1944.928782805591</v>
+        <v>2359.107284025647</v>
       </c>
       <c r="V20" t="n">
-        <v>1582.311832739417</v>
+        <v>2359.107284025647</v>
       </c>
       <c r="W20" t="n">
-        <v>1177.456378150451</v>
+        <v>2359.107284025647</v>
       </c>
       <c r="X20" t="n">
-        <v>1177.456378150451</v>
+        <v>1939.964820604957</v>
       </c>
       <c r="Y20" t="n">
-        <v>1177.456378150451</v>
+        <v>1939.964820604957</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>79.76014376868005</v>
       </c>
       <c r="H21" t="n">
-        <v>47.97737231912299</v>
+        <v>47.977372319123</v>
       </c>
       <c r="I21" t="n">
-        <v>82.75272404474124</v>
+        <v>82.75272404474126</v>
       </c>
       <c r="J21" t="n">
         <v>178.1789471685047</v>
       </c>
       <c r="K21" t="n">
-        <v>341.27756175221</v>
+        <v>341.2775617522101</v>
       </c>
       <c r="L21" t="n">
-        <v>560.5837766791822</v>
+        <v>560.5837766791824</v>
       </c>
       <c r="M21" t="n">
-        <v>816.5037854930631</v>
+        <v>816.5037854930633</v>
       </c>
       <c r="N21" t="n">
-        <v>1079.197235426494</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O21" t="n">
         <v>1319.510420784407</v>
       </c>
       <c r="P21" t="n">
-        <v>1512.382938418798</v>
+        <v>1485.229220531343</v>
       </c>
       <c r="Q21" t="n">
-        <v>1641.313108689166</v>
+        <v>1614.159390801712</v>
       </c>
       <c r="R21" t="n">
         <v>1676.870203416725</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>783.5803053197413</v>
+        <v>732.8821344218819</v>
       </c>
       <c r="C22" t="n">
-        <v>611.0185938029663</v>
+        <v>560.3204229051069</v>
       </c>
       <c r="D22" t="n">
-        <v>445.140601004489</v>
+        <v>394.4424301066296</v>
       </c>
       <c r="E22" t="n">
-        <v>275.3825972552262</v>
+        <v>224.6844263573668</v>
       </c>
       <c r="F22" t="n">
-        <v>275.3825972552262</v>
+        <v>47.977372319123</v>
       </c>
       <c r="G22" t="n">
-        <v>110.6552953410227</v>
+        <v>47.977372319123</v>
       </c>
       <c r="H22" t="n">
-        <v>110.6552953410227</v>
+        <v>47.977372319123</v>
       </c>
       <c r="I22" t="n">
-        <v>47.97737231912299</v>
+        <v>47.977372319123</v>
       </c>
       <c r="J22" t="n">
         <v>107.8447180416543</v>
       </c>
       <c r="K22" t="n">
-        <v>480.9836121568235</v>
+        <v>206.225157585688</v>
       </c>
       <c r="L22" t="n">
-        <v>1025.086585341305</v>
+        <v>505.0479757929232</v>
       </c>
       <c r="M22" t="n">
-        <v>1443.49683990739</v>
+        <v>1097.268456358639</v>
       </c>
       <c r="N22" t="n">
-        <v>1573.07727330682</v>
+        <v>1669.107692915714</v>
       </c>
       <c r="O22" t="n">
-        <v>1692.765776752097</v>
+        <v>2208.465445586772</v>
       </c>
       <c r="P22" t="n">
-        <v>2142.686862247777</v>
+        <v>2310.87963711211</v>
       </c>
       <c r="Q22" t="n">
-        <v>2381.785914783478</v>
+        <v>2381.785914783479</v>
       </c>
       <c r="R22" t="n">
-        <v>2398.868615956149</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.683941399238</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="T22" t="n">
-        <v>2254.683941399238</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U22" t="n">
-        <v>1976.298066455615</v>
+        <v>1878.294815847212</v>
       </c>
       <c r="V22" t="n">
-        <v>1689.342558326045</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W22" t="n">
-        <v>1417.316153912337</v>
+        <v>1319.312903303934</v>
       </c>
       <c r="X22" t="n">
-        <v>1171.924399245749</v>
+        <v>1152.120423826761</v>
       </c>
       <c r="Y22" t="n">
-        <v>975.3989240387284</v>
+        <v>924.700753140869</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1761.246563096264</v>
+        <v>2464.425998442684</v>
       </c>
       <c r="C23" t="n">
-        <v>1323.104090279688</v>
+        <v>2026.283525626108</v>
       </c>
       <c r="D23" t="n">
-        <v>887.1943054541321</v>
+        <v>1590.373740800552</v>
       </c>
       <c r="E23" t="n">
-        <v>887.1943054541321</v>
+        <v>1156.598995958847</v>
       </c>
       <c r="F23" t="n">
-        <v>459.3268758633398</v>
+        <v>728.731566368055</v>
       </c>
       <c r="G23" t="n">
-        <v>59.85512421828376</v>
+        <v>329.259814722999</v>
       </c>
       <c r="H23" t="n">
         <v>59.85512421828376</v>
@@ -5989,16 +5989,16 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J23" t="n">
-        <v>292.4446243464238</v>
+        <v>292.4446243464239</v>
       </c>
       <c r="K23" t="n">
-        <v>532.5735981782154</v>
+        <v>532.5735981782157</v>
       </c>
       <c r="L23" t="n">
-        <v>830.474823872902</v>
+        <v>830.4748238729023</v>
       </c>
       <c r="M23" t="n">
-        <v>1161.947336879331</v>
+        <v>1161.947336879332</v>
       </c>
       <c r="N23" t="n">
         <v>1498.783421690048</v>
@@ -6016,25 +6016,25 @@
         <v>2992.756210914188</v>
       </c>
       <c r="S23" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="T23" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="U23" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.139260848015</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="W23" t="n">
-        <v>2630.139260848015</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="X23" t="n">
-        <v>2210.996797427325</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="Y23" t="n">
-        <v>1802.710673726979</v>
+        <v>2890.725568927592</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>94.63047594390203</v>
       </c>
       <c r="J24" t="n">
-        <v>190.0566990676654</v>
+        <v>190.0566990676655</v>
       </c>
       <c r="K24" t="n">
-        <v>353.1553136513708</v>
+        <v>353.1553136513709</v>
       </c>
       <c r="L24" t="n">
-        <v>572.4615285783429</v>
+        <v>572.4615285783431</v>
       </c>
       <c r="M24" t="n">
-        <v>801.2278195047695</v>
+        <v>828.3815373922242</v>
       </c>
       <c r="N24" t="n">
-        <v>1063.921269438201</v>
+        <v>1091.074987325656</v>
       </c>
       <c r="O24" t="n">
-        <v>1304.234454796113</v>
+        <v>1331.388172683568</v>
       </c>
       <c r="P24" t="n">
-        <v>1497.106972430504</v>
+        <v>1524.260690317959</v>
       </c>
       <c r="Q24" t="n">
         <v>1626.037142700873</v>
@@ -6126,7 +6126,7 @@
         <v>1104.385779633594</v>
       </c>
       <c r="C25" t="n">
-        <v>931.8240681168194</v>
+        <v>931.8240681168193</v>
       </c>
       <c r="D25" t="n">
         <v>765.9460753183421</v>
@@ -6147,25 +6147,25 @@
         <v>59.85512421828376</v>
       </c>
       <c r="J25" t="n">
-        <v>119.722469940815</v>
+        <v>206.3021551055049</v>
       </c>
       <c r="K25" t="n">
-        <v>492.8613640559843</v>
+        <v>579.4410492206741</v>
       </c>
       <c r="L25" t="n">
-        <v>1036.964337240466</v>
+        <v>705.3341406371943</v>
       </c>
       <c r="M25" t="n">
-        <v>1629.184817806181</v>
+        <v>1297.55462120291</v>
       </c>
       <c r="N25" t="n">
-        <v>1758.765251205611</v>
+        <v>1869.393857759985</v>
       </c>
       <c r="O25" t="n">
-        <v>2286.653371710135</v>
+        <v>2408.751610431043</v>
       </c>
       <c r="P25" t="n">
-        <v>2736.574457205816</v>
+        <v>2736.574457205815</v>
       </c>
       <c r="Q25" t="n">
         <v>2975.673509741517</v>
@@ -6192,7 +6192,7 @@
         <v>1523.624069038473</v>
       </c>
       <c r="Y25" t="n">
-        <v>1296.204398352582</v>
+        <v>1296.204398352581</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1767.153878347177</v>
+        <v>2333.072942181808</v>
       </c>
       <c r="C26" t="n">
-        <v>1329.0114055306</v>
+        <v>1894.930469365231</v>
       </c>
       <c r="D26" t="n">
-        <v>893.1016207050446</v>
+        <v>1459.020684539676</v>
       </c>
       <c r="E26" t="n">
-        <v>459.3268758633398</v>
+        <v>1156.598995958847</v>
       </c>
       <c r="F26" t="n">
-        <v>459.3268758633398</v>
+        <v>728.731566368055</v>
       </c>
       <c r="G26" t="n">
-        <v>59.85512421828376</v>
+        <v>329.259814722999</v>
       </c>
       <c r="H26" t="n">
-        <v>59.85512421828376</v>
+        <v>59.85512421828379</v>
       </c>
       <c r="I26" t="n">
         <v>132.2241395513133</v>
       </c>
       <c r="J26" t="n">
-        <v>337.6031484702795</v>
+        <v>292.4446243464239</v>
       </c>
       <c r="K26" t="n">
-        <v>577.7321223020713</v>
+        <v>1033.151786547686</v>
       </c>
       <c r="L26" t="n">
-        <v>875.6333479967578</v>
+        <v>1331.053012242372</v>
       </c>
       <c r="M26" t="n">
-        <v>1207.105861003187</v>
+        <v>1662.525525248802</v>
       </c>
       <c r="N26" t="n">
-        <v>1543.941945813904</v>
+        <v>1999.361610059519</v>
       </c>
       <c r="O26" t="n">
-        <v>1862.006709153831</v>
+        <v>2398.858028088855</v>
       </c>
       <c r="P26" t="n">
-        <v>2133.467625976086</v>
+        <v>2670.31894491111</v>
       </c>
       <c r="Q26" t="n">
-        <v>2874.174788177348</v>
+        <v>2874.174788177349</v>
       </c>
       <c r="R26" t="n">
-        <v>2992.756210914188</v>
+        <v>2992.75621091419</v>
       </c>
       <c r="S26" t="n">
-        <v>2952.994878983685</v>
+        <v>2952.994878983686</v>
       </c>
       <c r="T26" t="n">
-        <v>2952.994878983685</v>
+        <v>2741.359065882154</v>
       </c>
       <c r="U26" t="n">
-        <v>2693.926662679236</v>
+        <v>2741.359065882154</v>
       </c>
       <c r="V26" t="n">
-        <v>2693.926662679236</v>
+        <v>2741.359065882154</v>
       </c>
       <c r="W26" t="n">
-        <v>2601.739572532431</v>
+        <v>2741.359065882154</v>
       </c>
       <c r="X26" t="n">
-        <v>2601.739572532431</v>
+        <v>2741.359065882154</v>
       </c>
       <c r="Y26" t="n">
-        <v>2193.453448832085</v>
+        <v>2333.072942181808</v>
       </c>
     </row>
     <row r="27">
@@ -6296,28 +6296,28 @@
         <v>175.9924418923906</v>
       </c>
       <c r="G27" t="n">
-        <v>91.63789566784081</v>
+        <v>91.63789566784084</v>
       </c>
       <c r="H27" t="n">
-        <v>59.85512421828376</v>
+        <v>59.85512421828379</v>
       </c>
       <c r="I27" t="n">
-        <v>67.47675805644755</v>
+        <v>94.63047594390206</v>
       </c>
       <c r="J27" t="n">
-        <v>162.902981180211</v>
+        <v>190.0566990676655</v>
       </c>
       <c r="K27" t="n">
-        <v>326.0015957639163</v>
+        <v>353.1553136513709</v>
       </c>
       <c r="L27" t="n">
-        <v>545.3078106908885</v>
+        <v>572.4615285783431</v>
       </c>
       <c r="M27" t="n">
-        <v>801.2278195047695</v>
+        <v>828.3815373922242</v>
       </c>
       <c r="N27" t="n">
-        <v>1063.921269438201</v>
+        <v>1091.074987325656</v>
       </c>
       <c r="O27" t="n">
         <v>1304.234454796113</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1104.385779633594</v>
+        <v>1104.385779633596</v>
       </c>
       <c r="C28" t="n">
-        <v>931.824068116819</v>
+        <v>931.8240681168209</v>
       </c>
       <c r="D28" t="n">
-        <v>765.9460753183419</v>
+        <v>765.9460753183421</v>
       </c>
       <c r="E28" t="n">
-        <v>596.1880715690791</v>
+        <v>596.1880715690793</v>
       </c>
       <c r="F28" t="n">
         <v>419.4810175308355</v>
@@ -6381,55 +6381,55 @@
         <v>122.5330472401835</v>
       </c>
       <c r="I28" t="n">
-        <v>59.85512421828376</v>
+        <v>59.85512421828379</v>
       </c>
       <c r="J28" t="n">
-        <v>206.3021551055049</v>
+        <v>119.7224699408151</v>
       </c>
       <c r="K28" t="n">
-        <v>579.4410492206741</v>
+        <v>218.1029094848488</v>
       </c>
       <c r="L28" t="n">
-        <v>1123.544022405155</v>
+        <v>751.4286767806216</v>
       </c>
       <c r="M28" t="n">
-        <v>1617.715185639647</v>
+        <v>1343.649157346337</v>
       </c>
       <c r="N28" t="n">
-        <v>1747.295619039077</v>
+        <v>1915.488393903412</v>
       </c>
       <c r="O28" t="n">
-        <v>2286.653371710135</v>
+        <v>2454.84614657447</v>
       </c>
       <c r="P28" t="n">
-        <v>2736.574457205816</v>
+        <v>2904.76723207015</v>
       </c>
       <c r="Q28" t="n">
-        <v>2975.673509741517</v>
+        <v>2975.673509741519</v>
       </c>
       <c r="R28" t="n">
-        <v>2992.756210914188</v>
+        <v>2992.75621091419</v>
       </c>
       <c r="S28" t="n">
-        <v>2848.571536357277</v>
+        <v>2848.571536357279</v>
       </c>
       <c r="T28" t="n">
-        <v>2606.383611191963</v>
+        <v>2606.383611191964</v>
       </c>
       <c r="U28" t="n">
-        <v>2327.997736248339</v>
+        <v>2327.997736248341</v>
       </c>
       <c r="V28" t="n">
-        <v>2041.042228118769</v>
+        <v>2041.042228118771</v>
       </c>
       <c r="W28" t="n">
-        <v>1769.01582370506</v>
+        <v>1769.015823705063</v>
       </c>
       <c r="X28" t="n">
-        <v>1523.624069038473</v>
+        <v>1523.624069038475</v>
       </c>
       <c r="Y28" t="n">
-        <v>1296.204398352581</v>
+        <v>1296.204398352583</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1156.598995958847</v>
+        <v>2464.425998442684</v>
       </c>
       <c r="C29" t="n">
-        <v>1156.598995958847</v>
+        <v>2026.283525626108</v>
       </c>
       <c r="D29" t="n">
-        <v>1156.598995958847</v>
+        <v>1590.373740800552</v>
       </c>
       <c r="E29" t="n">
         <v>1156.598995958847</v>
@@ -6463,52 +6463,52 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J29" t="n">
-        <v>337.6031484702795</v>
+        <v>296.0657534574123</v>
       </c>
       <c r="K29" t="n">
-        <v>577.7321223020713</v>
+        <v>536.194727289204</v>
       </c>
       <c r="L29" t="n">
-        <v>875.6333479967578</v>
+        <v>834.0959529838907</v>
       </c>
       <c r="M29" t="n">
-        <v>1207.105861003187</v>
+        <v>1574.803115185152</v>
       </c>
       <c r="N29" t="n">
-        <v>1543.941945813904</v>
+        <v>1911.639199995869</v>
       </c>
       <c r="O29" t="n">
-        <v>1862.006709153831</v>
+        <v>2229.703963335796</v>
       </c>
       <c r="P29" t="n">
-        <v>2133.467625976086</v>
+        <v>2501.164880158052</v>
       </c>
       <c r="Q29" t="n">
-        <v>2874.174788177348</v>
+        <v>2705.020723424291</v>
       </c>
       <c r="R29" t="n">
         <v>2992.756210914188</v>
       </c>
       <c r="S29" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="T29" t="n">
-        <v>2815.182608153757</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="U29" t="n">
-        <v>2815.182608153757</v>
+        <v>2482.290849577704</v>
       </c>
       <c r="V29" t="n">
-        <v>2815.182608153757</v>
+        <v>2482.290849577704</v>
       </c>
       <c r="W29" t="n">
-        <v>2410.327153564791</v>
+        <v>2482.290849577704</v>
       </c>
       <c r="X29" t="n">
-        <v>1991.184690144102</v>
+        <v>2482.290849577704</v>
       </c>
       <c r="Y29" t="n">
-        <v>1582.898566443755</v>
+        <v>2482.290849577704</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I30" t="n">
-        <v>67.47675805644755</v>
+        <v>94.63047594390203</v>
       </c>
       <c r="J30" t="n">
-        <v>162.902981180211</v>
+        <v>190.0566990676655</v>
       </c>
       <c r="K30" t="n">
-        <v>326.0015957639163</v>
+        <v>353.1553136513709</v>
       </c>
       <c r="L30" t="n">
-        <v>545.3078106908885</v>
+        <v>572.4615285783431</v>
       </c>
       <c r="M30" t="n">
-        <v>801.2278195047695</v>
+        <v>828.3815373922242</v>
       </c>
       <c r="N30" t="n">
-        <v>1063.921269438201</v>
+        <v>1091.074987325656</v>
       </c>
       <c r="O30" t="n">
-        <v>1304.234454796113</v>
+        <v>1331.388172683568</v>
       </c>
       <c r="P30" t="n">
-        <v>1497.106972430504</v>
+        <v>1524.260690317959</v>
       </c>
       <c r="Q30" t="n">
         <v>1626.037142700873</v>
@@ -6600,19 +6600,19 @@
         <v>1104.385779633594</v>
       </c>
       <c r="C31" t="n">
-        <v>931.824068116819</v>
+        <v>931.8240681168193</v>
       </c>
       <c r="D31" t="n">
-        <v>765.9460753183419</v>
+        <v>765.946075318342</v>
       </c>
       <c r="E31" t="n">
-        <v>596.1880715690791</v>
+        <v>596.1880715690793</v>
       </c>
       <c r="F31" t="n">
-        <v>419.4810175308353</v>
+        <v>419.4810175308355</v>
       </c>
       <c r="G31" t="n">
-        <v>254.7537156166318</v>
+        <v>254.7537156166319</v>
       </c>
       <c r="H31" t="n">
         <v>122.5330472401835</v>
@@ -6624,22 +6624,22 @@
         <v>206.3021551055049</v>
       </c>
       <c r="K31" t="n">
-        <v>386.6398227021478</v>
+        <v>579.4410492206741</v>
       </c>
       <c r="L31" t="n">
-        <v>930.742795886629</v>
+        <v>705.3341406371943</v>
       </c>
       <c r="M31" t="n">
-        <v>1522.963276452344</v>
+        <v>1297.55462120291</v>
       </c>
       <c r="N31" t="n">
-        <v>2094.802513009419</v>
+        <v>1869.393857759985</v>
       </c>
       <c r="O31" t="n">
-        <v>2634.160265680477</v>
+        <v>2408.751610431043</v>
       </c>
       <c r="P31" t="n">
-        <v>2736.574457205816</v>
+        <v>2736.574457205815</v>
       </c>
       <c r="Q31" t="n">
         <v>2975.673509741517</v>
@@ -6660,7 +6660,7 @@
         <v>2041.042228118769</v>
       </c>
       <c r="W31" t="n">
-        <v>1769.01582370506</v>
+        <v>1769.015823705061</v>
       </c>
       <c r="X31" t="n">
         <v>1523.624069038473</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1802.710673726979</v>
+        <v>1518.168134323749</v>
       </c>
       <c r="C32" t="n">
-        <v>1802.710673726979</v>
+        <v>1518.168134323749</v>
       </c>
       <c r="D32" t="n">
-        <v>1366.800888901423</v>
+        <v>1518.168134323749</v>
       </c>
       <c r="E32" t="n">
-        <v>933.0261440597183</v>
+        <v>1156.598995958847</v>
       </c>
       <c r="F32" t="n">
-        <v>505.158714468926</v>
+        <v>728.731566368055</v>
       </c>
       <c r="G32" t="n">
-        <v>105.68696282387</v>
+        <v>329.259814722999</v>
       </c>
       <c r="H32" t="n">
         <v>59.85512421828376</v>
@@ -6700,22 +6700,22 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J32" t="n">
-        <v>296.0657534574128</v>
+        <v>705.300402652244</v>
       </c>
       <c r="K32" t="n">
-        <v>536.1947272892045</v>
+        <v>945.4293764840359</v>
       </c>
       <c r="L32" t="n">
-        <v>834.095952983891</v>
+        <v>1243.330602178723</v>
       </c>
       <c r="M32" t="n">
-        <v>1574.803115185153</v>
+        <v>1574.803115185152</v>
       </c>
       <c r="N32" t="n">
         <v>1911.639199995869</v>
       </c>
       <c r="O32" t="n">
-        <v>2229.703963335797</v>
+        <v>2229.703963335796</v>
       </c>
       <c r="P32" t="n">
         <v>2501.164880158052</v>
@@ -6727,25 +6727,25 @@
         <v>2992.756210914188</v>
       </c>
       <c r="S32" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="T32" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="U32" t="n">
-        <v>2992.756210914188</v>
+        <v>2693.926662679236</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.139260848015</v>
+        <v>2331.309712613062</v>
       </c>
       <c r="W32" t="n">
-        <v>2630.139260848015</v>
+        <v>1926.454258024096</v>
       </c>
       <c r="X32" t="n">
-        <v>2210.996797427325</v>
+        <v>1926.454258024096</v>
       </c>
       <c r="Y32" t="n">
-        <v>1802.710673726979</v>
+        <v>1518.168134323749</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I33" t="n">
-        <v>67.47675805644755</v>
+        <v>94.63047594390203</v>
       </c>
       <c r="J33" t="n">
-        <v>162.902981180211</v>
+        <v>162.9029811802107</v>
       </c>
       <c r="K33" t="n">
-        <v>326.0015957639163</v>
+        <v>326.0015957639161</v>
       </c>
       <c r="L33" t="n">
-        <v>545.3078106908885</v>
+        <v>545.3078106908883</v>
       </c>
       <c r="M33" t="n">
-        <v>801.2278195047695</v>
+        <v>801.2278195047694</v>
       </c>
       <c r="N33" t="n">
         <v>1063.921269438201</v>
@@ -6849,7 +6849,7 @@
         <v>419.4810175308355</v>
       </c>
       <c r="G34" t="n">
-        <v>254.753715616632</v>
+        <v>254.7537156166319</v>
       </c>
       <c r="H34" t="n">
         <v>122.5330472401835</v>
@@ -6864,19 +6864,19 @@
         <v>579.4410492206741</v>
       </c>
       <c r="L34" t="n">
-        <v>1123.544022405155</v>
+        <v>930.7427958866284</v>
       </c>
       <c r="M34" t="n">
-        <v>1595.125631707784</v>
+        <v>1522.963276452344</v>
       </c>
       <c r="N34" t="n">
-        <v>2166.964868264859</v>
+        <v>2094.802513009419</v>
       </c>
       <c r="O34" t="n">
-        <v>2286.653371710135</v>
+        <v>2634.160265680477</v>
       </c>
       <c r="P34" t="n">
-        <v>2736.574457205816</v>
+        <v>2736.574457205815</v>
       </c>
       <c r="Q34" t="n">
         <v>2975.673509741517</v>
@@ -6888,7 +6888,7 @@
         <v>2848.571536357277</v>
       </c>
       <c r="T34" t="n">
-        <v>2606.383611191963</v>
+        <v>2606.383611191962</v>
       </c>
       <c r="U34" t="n">
         <v>2327.997736248339</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1152.76359929445</v>
+        <v>1619.301750056763</v>
       </c>
       <c r="C35" t="n">
-        <v>1152.76359929445</v>
+        <v>1181.159277240186</v>
       </c>
       <c r="D35" t="n">
-        <v>716.8538144688943</v>
+        <v>745.2494924146305</v>
       </c>
       <c r="E35" t="n">
-        <v>716.8538144688943</v>
+        <v>745.2494924146305</v>
       </c>
       <c r="F35" t="n">
-        <v>716.8538144688943</v>
+        <v>317.3820628238382</v>
       </c>
       <c r="G35" t="n">
         <v>317.3820628238382</v>
@@ -6937,13 +6937,13 @@
         <v>120.3463876521525</v>
       </c>
       <c r="J35" t="n">
-        <v>280.5668724472631</v>
+        <v>280.5668724472629</v>
       </c>
       <c r="K35" t="n">
-        <v>520.6958462790549</v>
+        <v>520.6958462790548</v>
       </c>
       <c r="L35" t="n">
-        <v>818.5970719737414</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M35" t="n">
         <v>1150.069584980171</v>
@@ -6967,22 +6967,22 @@
         <v>2359.107284025647</v>
       </c>
       <c r="T35" t="n">
-        <v>2147.471470924115</v>
+        <v>2304.669536846119</v>
       </c>
       <c r="U35" t="n">
-        <v>2147.471470924115</v>
+        <v>2045.60132054167</v>
       </c>
       <c r="V35" t="n">
-        <v>1784.854520857941</v>
+        <v>2045.60132054167</v>
       </c>
       <c r="W35" t="n">
-        <v>1784.854520857941</v>
+        <v>2045.60132054167</v>
       </c>
       <c r="X35" t="n">
-        <v>1365.712057437252</v>
+        <v>2045.60132054167</v>
       </c>
       <c r="Y35" t="n">
-        <v>1152.76359929445</v>
+        <v>2045.60132054167</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>47.977372319123</v>
       </c>
       <c r="I36" t="n">
-        <v>55.59900615728628</v>
+        <v>82.75272404474126</v>
       </c>
       <c r="J36" t="n">
-        <v>151.0252292810497</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K36" t="n">
-        <v>314.1238438647551</v>
+        <v>341.2775617522101</v>
       </c>
       <c r="L36" t="n">
-        <v>533.4300587917272</v>
+        <v>560.5837766791824</v>
       </c>
       <c r="M36" t="n">
-        <v>789.3500676056083</v>
+        <v>816.5037854930633</v>
       </c>
       <c r="N36" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O36" t="n">
-        <v>1292.356702896952</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P36" t="n">
-        <v>1485.229220531343</v>
+        <v>1512.382938418798</v>
       </c>
       <c r="Q36" t="n">
-        <v>1614.159390801712</v>
+        <v>1641.313108689166</v>
       </c>
       <c r="R36" t="n">
         <v>1676.870203416725</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>737.9178553614481</v>
+        <v>782.5245890892647</v>
       </c>
       <c r="C37" t="n">
-        <v>565.3561438446731</v>
+        <v>609.9628775724897</v>
       </c>
       <c r="D37" t="n">
-        <v>565.3561438446731</v>
+        <v>589.3410215049778</v>
       </c>
       <c r="E37" t="n">
-        <v>395.5981400954103</v>
+        <v>419.583017755715</v>
       </c>
       <c r="F37" t="n">
-        <v>218.8910860571665</v>
+        <v>242.8759637174712</v>
       </c>
       <c r="G37" t="n">
-        <v>180.1980406955714</v>
+        <v>242.8759637174712</v>
       </c>
       <c r="H37" t="n">
-        <v>47.977372319123</v>
+        <v>110.6552953410227</v>
       </c>
       <c r="I37" t="n">
         <v>47.977372319123</v>
       </c>
       <c r="J37" t="n">
-        <v>194.4244032063442</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K37" t="n">
-        <v>567.5632973215135</v>
+        <v>480.9836121568235</v>
       </c>
       <c r="L37" t="n">
-        <v>1111.666270505995</v>
+        <v>1025.086585341305</v>
       </c>
       <c r="M37" t="n">
-        <v>1244.402883890797</v>
+        <v>1157.823198726107</v>
       </c>
       <c r="N37" t="n">
-        <v>1500.914918051381</v>
+        <v>1287.403632125537</v>
       </c>
       <c r="O37" t="n">
-        <v>2040.272670722439</v>
+        <v>1826.761384796596</v>
       </c>
       <c r="P37" t="n">
-        <v>2142.686862247778</v>
+        <v>2276.682470292275</v>
       </c>
       <c r="Q37" t="n">
         <v>2381.785914783479</v>
@@ -7134,13 +7134,13 @@
         <v>1447.154633160731</v>
       </c>
       <c r="W37" t="n">
-        <v>1175.128228747023</v>
+        <v>1447.154633160731</v>
       </c>
       <c r="X37" t="n">
-        <v>929.7364740804353</v>
+        <v>1201.762878494144</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.7364740804353</v>
+        <v>974.3432078082519</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1189.29928048212</v>
+        <v>1783.671804393752</v>
       </c>
       <c r="C38" t="n">
-        <v>751.1568076655431</v>
+        <v>1345.529331577176</v>
       </c>
       <c r="D38" t="n">
-        <v>751.1568076655431</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="E38" t="n">
-        <v>317.3820628238382</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F38" t="n">
-        <v>317.3820628238382</v>
+        <v>47.977372319123</v>
       </c>
       <c r="G38" t="n">
-        <v>317.3820628238382</v>
+        <v>47.977372319123</v>
       </c>
       <c r="H38" t="n">
         <v>47.977372319123</v>
@@ -7174,13 +7174,13 @@
         <v>120.3463876521525</v>
       </c>
       <c r="J38" t="n">
-        <v>280.5668724472631</v>
+        <v>280.5668724472629</v>
       </c>
       <c r="K38" t="n">
-        <v>520.6958462790549</v>
+        <v>520.6958462790548</v>
       </c>
       <c r="L38" t="n">
-        <v>818.5970719737414</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M38" t="n">
         <v>1150.069584980171</v>
@@ -7204,22 +7204,22 @@
         <v>2359.107284025647</v>
       </c>
       <c r="T38" t="n">
-        <v>2147.471470924115</v>
+        <v>2359.107284025647</v>
       </c>
       <c r="U38" t="n">
-        <v>1888.403254619666</v>
+        <v>2359.107284025647</v>
       </c>
       <c r="V38" t="n">
-        <v>1608.441743902809</v>
+        <v>2359.107284025647</v>
       </c>
       <c r="W38" t="n">
-        <v>1608.441743902809</v>
+        <v>2359.107284025647</v>
       </c>
       <c r="X38" t="n">
-        <v>1189.29928048212</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="Y38" t="n">
-        <v>1189.29928048212</v>
+        <v>2209.97137487866</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>47.977372319123</v>
       </c>
       <c r="I39" t="n">
-        <v>55.59900615728628</v>
+        <v>82.75272404474126</v>
       </c>
       <c r="J39" t="n">
-        <v>151.0252292810497</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K39" t="n">
-        <v>314.1238438647551</v>
+        <v>341.2775617522101</v>
       </c>
       <c r="L39" t="n">
-        <v>533.4300587917272</v>
+        <v>560.5837766791824</v>
       </c>
       <c r="M39" t="n">
-        <v>789.3500676056083</v>
+        <v>816.5037854930633</v>
       </c>
       <c r="N39" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O39" t="n">
-        <v>1292.356702896952</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P39" t="n">
-        <v>1485.229220531343</v>
+        <v>1512.382938418798</v>
       </c>
       <c r="Q39" t="n">
-        <v>1614.159390801712</v>
+        <v>1641.313108689166</v>
       </c>
       <c r="R39" t="n">
         <v>1676.870203416725</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>556.1750803836381</v>
+        <v>654.6828592324673</v>
       </c>
       <c r="C40" t="n">
-        <v>383.6133688668631</v>
+        <v>482.1211477156922</v>
       </c>
       <c r="D40" t="n">
-        <v>217.7353760683857</v>
+        <v>394.4424301066296</v>
       </c>
       <c r="E40" t="n">
-        <v>47.977372319123</v>
+        <v>224.6844263573668</v>
       </c>
       <c r="F40" t="n">
         <v>47.977372319123</v>
@@ -7347,10 +7347,10 @@
         <v>1287.403632125537</v>
       </c>
       <c r="O40" t="n">
-        <v>1826.761384796595</v>
+        <v>1826.761384796596</v>
       </c>
       <c r="P40" t="n">
-        <v>2142.686862247778</v>
+        <v>2276.682470292275</v>
       </c>
       <c r="Q40" t="n">
         <v>2381.785914783479</v>
@@ -7359,25 +7359,25 @@
         <v>2398.86861595615</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.683941399239</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="T40" t="n">
-        <v>2012.496016233924</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.110141290301</v>
+        <v>1878.294815847212</v>
       </c>
       <c r="V40" t="n">
-        <v>1447.154633160731</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W40" t="n">
-        <v>1220.805124455105</v>
+        <v>1319.312903303934</v>
       </c>
       <c r="X40" t="n">
-        <v>975.413369788517</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y40" t="n">
-        <v>747.9936991026252</v>
+        <v>846.5014779514545</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>883.3589087897345</v>
+        <v>1783.671804393752</v>
       </c>
       <c r="C41" t="n">
-        <v>883.3589087897345</v>
+        <v>1345.529331577176</v>
       </c>
       <c r="D41" t="n">
-        <v>447.449123964179</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="E41" t="n">
-        <v>447.449123964179</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F41" t="n">
-        <v>447.449123964179</v>
+        <v>47.977372319123</v>
       </c>
       <c r="G41" t="n">
         <v>47.977372319123</v>
@@ -7408,16 +7408,16 @@
         <v>47.977372319123</v>
       </c>
       <c r="I41" t="n">
-        <v>120.3463876521525</v>
+        <v>120.3463876521523</v>
       </c>
       <c r="J41" t="n">
-        <v>280.5668724472631</v>
+        <v>280.5668724472629</v>
       </c>
       <c r="K41" t="n">
-        <v>520.6958462790549</v>
+        <v>520.6958462790548</v>
       </c>
       <c r="L41" t="n">
-        <v>818.5970719737414</v>
+        <v>818.5970719737413</v>
       </c>
       <c r="M41" t="n">
         <v>1150.069584980171</v>
@@ -7438,25 +7438,25 @@
         <v>2398.86861595615</v>
       </c>
       <c r="S41" t="n">
-        <v>2359.107284025647</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="T41" t="n">
-        <v>2147.471470924115</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="U41" t="n">
-        <v>1888.403254619666</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="V41" t="n">
-        <v>1525.786304553493</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="W41" t="n">
-        <v>1120.930849964526</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="X41" t="n">
-        <v>1120.930849964526</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="Y41" t="n">
-        <v>883.3589087897345</v>
+        <v>2209.97137487866</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>47.977372319123</v>
       </c>
       <c r="I42" t="n">
-        <v>55.59900615728628</v>
+        <v>82.75272404474126</v>
       </c>
       <c r="J42" t="n">
-        <v>151.0252292810497</v>
+        <v>151.0252292810496</v>
       </c>
       <c r="K42" t="n">
-        <v>314.1238438647551</v>
+        <v>314.123843864755</v>
       </c>
       <c r="L42" t="n">
         <v>533.4300587917272</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>896.8707843977818</v>
+        <v>654.6828592324673</v>
       </c>
       <c r="C43" t="n">
-        <v>755.2190143034551</v>
+        <v>482.1211477156922</v>
       </c>
       <c r="D43" t="n">
-        <v>589.3410215049778</v>
+        <v>394.4424301066296</v>
       </c>
       <c r="E43" t="n">
-        <v>419.583017755715</v>
+        <v>224.6844263573668</v>
       </c>
       <c r="F43" t="n">
-        <v>242.8759637174712</v>
+        <v>47.977372319123</v>
       </c>
       <c r="G43" t="n">
-        <v>242.8759637174712</v>
+        <v>47.977372319123</v>
       </c>
       <c r="H43" t="n">
-        <v>110.6552953410227</v>
+        <v>47.977372319123</v>
       </c>
       <c r="I43" t="n">
         <v>47.977372319123</v>
       </c>
       <c r="J43" t="n">
-        <v>107.8447180416543</v>
+        <v>112.5816699680371</v>
       </c>
       <c r="K43" t="n">
-        <v>480.9836121568235</v>
+        <v>210.9621095120708</v>
       </c>
       <c r="L43" t="n">
-        <v>606.8767035733437</v>
+        <v>336.8552009285909</v>
       </c>
       <c r="M43" t="n">
-        <v>739.6133169581459</v>
+        <v>929.0756814943062</v>
       </c>
       <c r="N43" t="n">
-        <v>1311.452553515221</v>
+        <v>1500.914918051381</v>
       </c>
       <c r="O43" t="n">
-        <v>1850.810306186279</v>
+        <v>2040.272670722439</v>
       </c>
       <c r="P43" t="n">
         <v>2142.686862247778</v>
@@ -7599,22 +7599,22 @@
         <v>2398.86861595615</v>
       </c>
       <c r="T43" t="n">
-        <v>2398.86861595615</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U43" t="n">
-        <v>2120.482741012526</v>
+        <v>1878.294815847212</v>
       </c>
       <c r="V43" t="n">
-        <v>1833.527232882957</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W43" t="n">
-        <v>1561.500828469248</v>
+        <v>1319.312903303934</v>
       </c>
       <c r="X43" t="n">
-        <v>1316.109073802661</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y43" t="n">
-        <v>1088.689403116769</v>
+        <v>846.5014779514545</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1060.97466749863</v>
+        <v>1755.276126448016</v>
       </c>
       <c r="C44" t="n">
-        <v>1060.97466749863</v>
+        <v>1317.133653631439</v>
       </c>
       <c r="D44" t="n">
-        <v>1060.97466749863</v>
+        <v>881.2238688058839</v>
       </c>
       <c r="E44" t="n">
-        <v>627.1999226569251</v>
+        <v>447.449123964179</v>
       </c>
       <c r="F44" t="n">
-        <v>199.3324930661328</v>
+        <v>447.449123964179</v>
       </c>
       <c r="G44" t="n">
-        <v>199.3324930661328</v>
+        <v>47.97737231912301</v>
       </c>
       <c r="H44" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912301</v>
       </c>
       <c r="I44" t="n">
         <v>120.3463876521526</v>
@@ -7663,10 +7663,10 @@
         <v>1486.905669790888</v>
       </c>
       <c r="O44" t="n">
-        <v>1804.970433130815</v>
+        <v>1804.970433130816</v>
       </c>
       <c r="P44" t="n">
-        <v>2076.43134995307</v>
+        <v>2076.431349953071</v>
       </c>
       <c r="Q44" t="n">
         <v>2280.28719321931</v>
@@ -7675,25 +7675,25 @@
         <v>2398.86861595615</v>
       </c>
       <c r="S44" t="n">
-        <v>2359.107284025647</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="T44" t="n">
-        <v>2147.471470924115</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="U44" t="n">
-        <v>1888.403254619666</v>
+        <v>2181.575696932924</v>
       </c>
       <c r="V44" t="n">
-        <v>1888.403254619666</v>
+        <v>2181.575696932924</v>
       </c>
       <c r="W44" t="n">
-        <v>1888.403254619666</v>
+        <v>2181.575696932924</v>
       </c>
       <c r="X44" t="n">
-        <v>1469.260791198977</v>
+        <v>2181.575696932924</v>
       </c>
       <c r="Y44" t="n">
-        <v>1060.97466749863</v>
+        <v>2181.575696932924</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1265.164105606343</v>
+        <v>543.1656930669189</v>
       </c>
       <c r="C45" t="n">
-        <v>1158.707644442986</v>
+        <v>436.7092319035612</v>
       </c>
       <c r="D45" t="n">
-        <v>1063.617355589539</v>
+        <v>341.6189430501145</v>
       </c>
       <c r="E45" t="n">
-        <v>969.4969409164926</v>
+        <v>247.4985283770682</v>
       </c>
       <c r="F45" t="n">
-        <v>886.1131025326542</v>
+        <v>164.1146899932298</v>
       </c>
       <c r="G45" t="n">
-        <v>801.7585563081045</v>
+        <v>79.76014376868005</v>
       </c>
       <c r="H45" t="n">
-        <v>769.9757848585475</v>
+        <v>47.97737231912301</v>
       </c>
       <c r="I45" t="n">
-        <v>804.7511365841659</v>
+        <v>82.75272404474127</v>
       </c>
       <c r="J45" t="n">
-        <v>873.0236418204748</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K45" t="n">
-        <v>1036.12225640418</v>
+        <v>341.2775617522101</v>
       </c>
       <c r="L45" t="n">
-        <v>1255.428471331152</v>
+        <v>560.5837766791825</v>
       </c>
       <c r="M45" t="n">
-        <v>1511.348480145034</v>
+        <v>816.5037854930636</v>
       </c>
       <c r="N45" t="n">
-        <v>1774.041930078465</v>
+        <v>1052.04351753904</v>
       </c>
       <c r="O45" t="n">
-        <v>2014.355115436377</v>
+        <v>1292.356702896952</v>
       </c>
       <c r="P45" t="n">
-        <v>2207.227633070768</v>
+        <v>1485.229220531343</v>
       </c>
       <c r="Q45" t="n">
-        <v>2336.157803341137</v>
+        <v>1614.159390801712</v>
       </c>
       <c r="R45" t="n">
-        <v>2398.86861595615</v>
+        <v>1676.870203416725</v>
       </c>
       <c r="S45" t="n">
-        <v>2354.555072096388</v>
+        <v>1632.556659556964</v>
       </c>
       <c r="T45" t="n">
-        <v>2228.530241957761</v>
+        <v>1506.531829418336</v>
       </c>
       <c r="U45" t="n">
-        <v>2052.261493872812</v>
+        <v>1330.263081333388</v>
       </c>
       <c r="V45" t="n">
-        <v>1853.143975934812</v>
+        <v>1131.145563395387</v>
       </c>
       <c r="W45" t="n">
-        <v>1667.821221668006</v>
+        <v>945.8228091285814</v>
       </c>
       <c r="X45" t="n">
-        <v>1512.953785906886</v>
+        <v>790.9553733674613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1386.468006686106</v>
+        <v>664.4695941466821</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>755.8899393421439</v>
+        <v>1024.873363491018</v>
       </c>
       <c r="C46" t="n">
-        <v>583.3282278253688</v>
+        <v>852.3116519742431</v>
       </c>
       <c r="D46" t="n">
-        <v>417.4502350268915</v>
+        <v>686.4336591757658</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6922312776288</v>
+        <v>516.675655426503</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6922312776288</v>
+        <v>339.9686013882592</v>
       </c>
       <c r="G46" t="n">
-        <v>242.8759637174712</v>
+        <v>180.1980406955715</v>
       </c>
       <c r="H46" t="n">
-        <v>110.6552953410227</v>
+        <v>47.97737231912301</v>
       </c>
       <c r="I46" t="n">
-        <v>47.977372319123</v>
+        <v>47.97737231912301</v>
       </c>
       <c r="J46" t="n">
-        <v>107.8447180416543</v>
+        <v>194.4244032063442</v>
       </c>
       <c r="K46" t="n">
-        <v>480.9836121568235</v>
+        <v>379.1548843764035</v>
       </c>
       <c r="L46" t="n">
-        <v>756.5244501543723</v>
+        <v>505.0479757929236</v>
       </c>
       <c r="M46" t="n">
-        <v>1348.744930720087</v>
+        <v>1097.268456358639</v>
       </c>
       <c r="N46" t="n">
-        <v>1920.584167277163</v>
+        <v>1669.107692915714</v>
       </c>
       <c r="O46" t="n">
-        <v>2040.272670722439</v>
+        <v>2208.465445586772</v>
       </c>
       <c r="P46" t="n">
-        <v>2142.686862247778</v>
+        <v>2310.87963711211</v>
       </c>
       <c r="Q46" t="n">
         <v>2381.785914783479</v>
@@ -7836,22 +7836,22 @@
         <v>2254.683941399239</v>
       </c>
       <c r="T46" t="n">
-        <v>2012.496016233924</v>
+        <v>2012.496016233925</v>
       </c>
       <c r="U46" t="n">
         <v>1734.110141290301</v>
       </c>
       <c r="V46" t="n">
-        <v>1447.154633160731</v>
+        <v>1734.110141290301</v>
       </c>
       <c r="W46" t="n">
-        <v>1175.128228747023</v>
+        <v>1462.083736876593</v>
       </c>
       <c r="X46" t="n">
-        <v>1175.128228747023</v>
+        <v>1216.691982210005</v>
       </c>
       <c r="Y46" t="n">
-        <v>947.708558061131</v>
+        <v>1216.691982210005</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-1.837363033884704e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-9.278683321117754e-13</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>247.5677596425805</v>
+        <v>201.1050060773675</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9105,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.22226426871157</v>
+        <v>87.22226426871202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
@@ -9333,16 +9333,16 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.9131586252288</v>
+        <v>34.54259274730748</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>174.676491707793</v>
       </c>
       <c r="M22" t="n">
-        <v>288.5592335164479</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>542.2740595303258</v>
+        <v>542.2740595303253</v>
       </c>
       <c r="R23" t="n">
-        <v>45.61467083217713</v>
+        <v>45.61467083217667</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9795,25 +9795,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>412.3228455143917</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>227.6855103529638</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.61467083217752</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>505.6345337065354</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>82.25419665596837</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>542.2740595303258</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10032,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>411.5481574537906</v>
       </c>
       <c r="M28" t="n">
-        <v>365.0854038885755</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.61467083217752</v>
+        <v>3.657706172715507</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>413.3683325200321</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>542.2740595303258</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10272,10 +10272,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>82.78507884101947</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>227.6855103529638</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.657706172716132</v>
+        <v>417.0260386927476</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>413.3683325200325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10512,19 +10512,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>227.6855103529638</v>
       </c>
       <c r="M34" t="n">
-        <v>342.2676726442689</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10755,16 +10755,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>128.21373814258</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>34.54259274730748</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>215.6679655816606</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>34.54259274730748</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>4.784799925639177</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
@@ -11235,7 +11235,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>191.3761257941014</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>87.22226426871282</v>
       </c>
       <c r="L46" t="n">
-        <v>151.159339980837</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645587</v>
@@ -11469,13 +11469,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>22.03657478005914</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>33.76104808841137</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>31.55068697730036</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>29.43699739328821</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -22615,7 +22615,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>4.203262463343549</v>
       </c>
     </row>
     <row r="3">
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>82.36195526076978</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H11" t="n">
-        <v>243.8522799500879</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.36371861119831</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>18.39972311426504</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>218.2288883847211</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>227.9427701197678</v>
       </c>
       <c r="F14" t="n">
-        <v>3.589038045349639</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.36371861119832</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T14" t="n">
         <v>209.5194549705165</v>
@@ -23557,7 +23557,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>77.41728243752092</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H16" t="n">
-        <v>4.143310066647388</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I16" t="n">
         <v>62.0511437916807</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.871290745317026</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T17" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>88.32230660992923</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.55732783472058</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48586159470644</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T19" t="n">
-        <v>239.7660459136613</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>267.3064887309656</v>
       </c>
       <c r="G20" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>39.36371861119832</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>16.59655429286801</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H22" t="n">
         <v>130.898461692684</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T22" t="n">
-        <v>239.7660459136613</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>77.41728243752036</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.58525352408211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>380.9871052556514</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24214,7 +24214,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.36371861119832</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.5194549705165</v>
@@ -24265,16 +24265,16 @@
         <v>256.4775341414042</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>342.5566455078117</v>
       </c>
     </row>
     <row r="24">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>130.0395256982678</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>309.5416807977405</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>404.3503721563896</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.36371861119832</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>33.72158823769013</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24922,10 +24922,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>71.48355041203496</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>221.3371233801377</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.36371861119832</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>155.626085262784</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>193.3842889019688</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>143.8035753636558</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>124.7739139870824</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V38" t="n">
-        <v>81.82888495582307</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>267.3064887309656</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>77.41728243752047</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0800288950615</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>45.22012675100095</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H41" t="n">
         <v>266.7106435996681</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>169.0070407002997</v>
+        <v>217.194993796628</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>30.60084200822388</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>77.41728243752047</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>163.0800288950615</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>142.7428278113418</v>
       </c>
       <c r="T43" t="n">
-        <v>239.7660459136613</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>116.8690740601283</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>39.3637186111983</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>41.35754430840981</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -25930,10 +25930,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>158.3119240105055</v>
+        <v>4.907173809300645</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>471046.1696008126</v>
+        <v>471046.1696008124</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>304838.1075476363</v>
+        <v>304838.1075476364</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>304838.1075476362</v>
+        <v>304838.1075476363</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>304838.1075476362</v>
+        <v>304838.1075476364</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>304838.1075476363</v>
+        <v>304838.1075476364</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>389014.6755695557</v>
+        <v>389014.6755695556</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>389014.6755695557</v>
+        <v>389014.6755695558</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>389014.6755695557</v>
+        <v>389014.6755695555</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>389014.6755695557</v>
+        <v>389014.6755695556</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>304838.1075476363</v>
+        <v>304838.1075476364</v>
       </c>
     </row>
   </sheetData>
@@ -26319,7 +26319,7 @@
         <v>444876.9379563229</v>
       </c>
       <c r="D2" t="n">
-        <v>444876.937956323</v>
+        <v>444876.9379563229</v>
       </c>
       <c r="E2" t="n">
         <v>270795.7157222386</v>
@@ -26334,28 +26334,28 @@
         <v>270795.7157222385</v>
       </c>
       <c r="I2" t="n">
-        <v>321534.9846342056</v>
+        <v>321534.9846342057</v>
       </c>
       <c r="J2" t="n">
         <v>321534.9846342058</v>
       </c>
       <c r="K2" t="n">
-        <v>321534.9846342058</v>
+        <v>321534.9846342056</v>
       </c>
       <c r="L2" t="n">
-        <v>321534.9846342058</v>
+        <v>321534.9846342056</v>
       </c>
       <c r="M2" t="n">
         <v>270795.7157222386</v>
       </c>
       <c r="N2" t="n">
+        <v>270795.7157222385</v>
+      </c>
+      <c r="O2" t="n">
+        <v>270795.7157222385</v>
+      </c>
+      <c r="P2" t="n">
         <v>270795.7157222386</v>
-      </c>
-      <c r="O2" t="n">
-        <v>270795.7157222386</v>
-      </c>
-      <c r="P2" t="n">
-        <v>270795.7157222385</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.405287577637143e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39481.79578470916</v>
+        <v>39481.79578470909</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>112452.1225892033</v>
+        <v>112452.1225892034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>18586.8947874542</v>
       </c>
       <c r="F4" t="n">
-        <v>18586.89478745418</v>
+        <v>18586.89478745419</v>
       </c>
       <c r="G4" t="n">
-        <v>18586.89478745418</v>
+        <v>18586.8947874542</v>
       </c>
       <c r="H4" t="n">
-        <v>18586.89478745419</v>
+        <v>18586.8947874542</v>
       </c>
       <c r="I4" t="n">
-        <v>49130.88892893017</v>
+        <v>49130.88892893013</v>
       </c>
       <c r="J4" t="n">
-        <v>49130.88892893019</v>
+        <v>49130.88892893023</v>
       </c>
       <c r="K4" t="n">
-        <v>49130.88892893019</v>
+        <v>49130.88892893013</v>
       </c>
       <c r="L4" t="n">
-        <v>49130.88892893017</v>
+        <v>49130.88892893013</v>
       </c>
       <c r="M4" t="n">
         <v>18586.8947874542</v>
@@ -26459,7 +26459,7 @@
         <v>18586.8947874542</v>
       </c>
       <c r="P4" t="n">
-        <v>18586.89478745419</v>
+        <v>18586.8947874542</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33627.6</v>
+        <v>33627.59999999996</v>
       </c>
       <c r="C5" t="n">
         <v>33627.6</v>
@@ -26484,16 +26484,16 @@
         <v>46803.00533885189</v>
       </c>
       <c r="G5" t="n">
-        <v>46803.00533885189</v>
+        <v>46803.0053388519</v>
       </c>
       <c r="H5" t="n">
-        <v>46803.00533885189</v>
+        <v>46803.0053388519</v>
       </c>
       <c r="I5" t="n">
         <v>55830.09678221408</v>
       </c>
       <c r="J5" t="n">
-        <v>55830.09678221408</v>
+        <v>55830.09678221411</v>
       </c>
       <c r="K5" t="n">
         <v>55830.09678221408</v>
@@ -26511,7 +26511,7 @@
         <v>46803.0053388519</v>
       </c>
       <c r="P5" t="n">
-        <v>46803.0053388519</v>
+        <v>46803.00533885192</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112518.62164449</v>
+        <v>112486.7149269891</v>
       </c>
       <c r="C6" t="n">
-        <v>112518.62164449</v>
+        <v>112486.7149269879</v>
       </c>
       <c r="D6" t="n">
-        <v>112518.6216444902</v>
+        <v>112486.7149269884</v>
       </c>
       <c r="E6" t="n">
-        <v>-354727.6158234648</v>
+        <v>-355271.5261357724</v>
       </c>
       <c r="F6" t="n">
-        <v>205405.8155959325</v>
+        <v>204861.9052836247</v>
       </c>
       <c r="G6" t="n">
-        <v>205405.8155959324</v>
+        <v>204861.9052836247</v>
       </c>
       <c r="H6" t="n">
-        <v>205405.8155959325</v>
+        <v>204861.9052836247</v>
       </c>
       <c r="I6" t="n">
-        <v>177092.2031383523</v>
+        <v>176697.5259699034</v>
       </c>
       <c r="J6" t="n">
-        <v>216573.9989230615</v>
+        <v>216179.3217546125</v>
       </c>
       <c r="K6" t="n">
-        <v>216573.9989230616</v>
+        <v>216179.3217546125</v>
       </c>
       <c r="L6" t="n">
-        <v>216573.9989230615</v>
+        <v>216179.3217546125</v>
       </c>
       <c r="M6" t="n">
-        <v>92953.69300672924</v>
+        <v>92409.78269442152</v>
       </c>
       <c r="N6" t="n">
-        <v>205405.8155959325</v>
+        <v>204861.9052836247</v>
       </c>
       <c r="O6" t="n">
-        <v>205405.8155959325</v>
+        <v>204861.9052836247</v>
       </c>
       <c r="P6" t="n">
-        <v>205405.8155959324</v>
+        <v>204861.9052836249</v>
       </c>
     </row>
   </sheetData>
@@ -26749,25 +26749,25 @@
         <v>474.3212099228637</v>
       </c>
       <c r="F3" t="n">
-        <v>474.3212099228636</v>
+        <v>474.3212099228637</v>
       </c>
       <c r="G3" t="n">
-        <v>474.3212099228636</v>
+        <v>474.3212099228637</v>
       </c>
       <c r="H3" t="n">
-        <v>474.3212099228635</v>
+        <v>474.3212099228637</v>
       </c>
       <c r="I3" t="n">
-        <v>474.3212099228636</v>
+        <v>474.3212099228637</v>
       </c>
       <c r="J3" t="n">
-        <v>474.3212099228636</v>
+        <v>474.3212099228637</v>
       </c>
       <c r="K3" t="n">
-        <v>474.3212099228636</v>
+        <v>474.3212099228637</v>
       </c>
       <c r="L3" t="n">
-        <v>474.3212099228636</v>
+        <v>474.3212099228637</v>
       </c>
       <c r="M3" t="n">
         <v>474.3212099228637</v>
@@ -26779,7 +26779,7 @@
         <v>474.3212099228637</v>
       </c>
       <c r="P3" t="n">
-        <v>474.3212099228637</v>
+        <v>474.3212099228638</v>
       </c>
     </row>
     <row r="4">
@@ -26801,25 +26801,25 @@
         <v>599.7171539890375</v>
       </c>
       <c r="F4" t="n">
-        <v>599.7171539890372</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="G4" t="n">
-        <v>599.7171539890372</v>
+        <v>599.7171539890375</v>
       </c>
       <c r="H4" t="n">
-        <v>599.7171539890373</v>
+        <v>599.7171539890375</v>
       </c>
       <c r="I4" t="n">
-        <v>748.189052728547</v>
+        <v>748.1890527285469</v>
       </c>
       <c r="J4" t="n">
-        <v>748.189052728547</v>
+        <v>748.1890527285474</v>
       </c>
       <c r="K4" t="n">
-        <v>748.189052728547</v>
+        <v>748.1890527285469</v>
       </c>
       <c r="L4" t="n">
-        <v>748.189052728547</v>
+        <v>748.1890527285469</v>
       </c>
       <c r="M4" t="n">
         <v>599.7171539890375</v>
@@ -26831,7 +26831,7 @@
         <v>599.7171539890375</v>
       </c>
       <c r="P4" t="n">
-        <v>599.7171539890375</v>
+        <v>599.7171539890376</v>
       </c>
     </row>
   </sheetData>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-2.016424873256357e-13</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.322560450736344e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>148.4718987395097</v>
+        <v>148.4718987395095</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>451.2452552495278</v>
+        <v>451.245255249528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629683</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314646</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27466,7 +27466,7 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>93.17921052631627</v>
       </c>
       <c r="F3" t="n">
         <v>82.55</v>
@@ -27475,7 +27475,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194965</v>
+        <v>41.3182956619501</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.82088317610075</v>
+        <v>62.8208831761012</v>
       </c>
       <c r="T3" t="n">
         <v>128.8768572327044</v>
@@ -27526,7 +27526,7 @@
         <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.2209214285714</v>
+        <v>125.2209214285728</v>
       </c>
     </row>
     <row r="4">
@@ -27545,7 +27545,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117706</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308168229</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149838</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -31047,7 +31047,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-6.699317056362329e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -31077,7 +31077,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-3.959812915423295e-14</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -31843,7 +31843,7 @@
         <v>96.39012436743781</v>
       </c>
       <c r="K12" t="n">
-        <v>164.7460753370761</v>
+        <v>137.31807747096</v>
       </c>
       <c r="L12" t="n">
         <v>221.5214292191638</v>
@@ -31852,7 +31852,7 @@
         <v>258.5050594079607</v>
       </c>
       <c r="N12" t="n">
-        <v>237.918921258562</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O12" t="n">
         <v>242.7405912706187</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.906818934363269</v>
+        <v>1.90681893436327</v>
       </c>
       <c r="H14" t="n">
         <v>19.52820941154784</v>
       </c>
       <c r="I14" t="n">
-        <v>73.51263696704001</v>
+        <v>73.51263696704002</v>
       </c>
       <c r="J14" t="n">
         <v>161.8388735304147</v>
@@ -32010,7 +32010,7 @@
         <v>334.8207202085147</v>
       </c>
       <c r="N14" t="n">
-        <v>340.2384695057743</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O14" t="n">
         <v>321.2775387271996</v>
@@ -32025,10 +32025,10 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S14" t="n">
-        <v>43.45163646680304</v>
+        <v>43.45163646680305</v>
       </c>
       <c r="T14" t="n">
-        <v>8.347099885175215</v>
+        <v>8.347099885175217</v>
       </c>
       <c r="U14" t="n">
         <v>0.1525455147490615</v>
@@ -32071,13 +32071,13 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H15" t="n">
-        <v>9.853351926888168</v>
+        <v>9.85335192688817</v>
       </c>
       <c r="I15" t="n">
-        <v>35.1266179046649</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J15" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K15" t="n">
         <v>164.7460753370761</v>
@@ -32086,10 +32086,10 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M15" t="n">
-        <v>258.5050594079606</v>
+        <v>231.0770615418445</v>
       </c>
       <c r="N15" t="n">
-        <v>237.9189212585625</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O15" t="n">
         <v>242.7405912706187</v>
@@ -32101,13 +32101,13 @@
         <v>130.2324952225946</v>
       </c>
       <c r="R15" t="n">
-        <v>63.34425516667981</v>
+        <v>63.34425516667982</v>
       </c>
       <c r="S15" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T15" t="n">
-        <v>4.112275395463316</v>
+        <v>4.112275395463317</v>
       </c>
       <c r="U15" t="n">
         <v>0.06712092593248073</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8553333293690982</v>
+        <v>0.8553333293690983</v>
       </c>
       <c r="H16" t="n">
-        <v>7.604690873845261</v>
+        <v>7.604690873845262</v>
       </c>
       <c r="I16" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J16" t="n">
-        <v>60.47206638639524</v>
+        <v>60.47206638639525</v>
       </c>
       <c r="K16" t="n">
         <v>99.37418135760976</v>
@@ -32186,10 +32186,10 @@
         <v>14.90612720364146</v>
       </c>
       <c r="T16" t="n">
-        <v>3.654606043667964</v>
+        <v>3.654606043667965</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0466545452383145</v>
+        <v>0.04665454523831451</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.906818934363269</v>
+        <v>1.90681893436327</v>
       </c>
       <c r="H17" t="n">
         <v>19.52820941154784</v>
       </c>
       <c r="I17" t="n">
-        <v>73.51263696704001</v>
+        <v>73.51263696704002</v>
       </c>
       <c r="J17" t="n">
         <v>161.8388735304147</v>
@@ -32247,7 +32247,7 @@
         <v>334.8207202085147</v>
       </c>
       <c r="N17" t="n">
-        <v>340.2384695057743</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O17" t="n">
         <v>321.2775387271996</v>
@@ -32262,10 +32262,10 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S17" t="n">
-        <v>43.45163646680304</v>
+        <v>43.45163646680305</v>
       </c>
       <c r="T17" t="n">
-        <v>8.347099885175215</v>
+        <v>8.347099885175217</v>
       </c>
       <c r="U17" t="n">
         <v>0.1525455147490615</v>
@@ -32308,13 +32308,13 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H18" t="n">
-        <v>9.853351926888168</v>
+        <v>9.85335192688817</v>
       </c>
       <c r="I18" t="n">
-        <v>35.1266179046649</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J18" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K18" t="n">
         <v>164.7460753370761</v>
@@ -32323,10 +32323,10 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M18" t="n">
-        <v>258.5050594079606</v>
+        <v>231.0770615418445</v>
       </c>
       <c r="N18" t="n">
-        <v>237.9189212585625</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O18" t="n">
         <v>242.7405912706187</v>
@@ -32338,13 +32338,13 @@
         <v>130.2324952225946</v>
       </c>
       <c r="R18" t="n">
-        <v>63.34425516667981</v>
+        <v>63.34425516667982</v>
       </c>
       <c r="S18" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T18" t="n">
-        <v>4.112275395463316</v>
+        <v>4.112275395463317</v>
       </c>
       <c r="U18" t="n">
         <v>0.06712092593248073</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8553333293690982</v>
+        <v>0.8553333293690983</v>
       </c>
       <c r="H19" t="n">
-        <v>7.604690873845261</v>
+        <v>7.604690873845262</v>
       </c>
       <c r="I19" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J19" t="n">
-        <v>60.47206638639524</v>
+        <v>60.47206638639525</v>
       </c>
       <c r="K19" t="n">
         <v>99.37418135760976</v>
@@ -32423,10 +32423,10 @@
         <v>14.90612720364146</v>
       </c>
       <c r="T19" t="n">
-        <v>3.654606043667964</v>
+        <v>3.654606043667965</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0466545452383145</v>
+        <v>0.04665454523831451</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.906818934363269</v>
+        <v>1.90681893436327</v>
       </c>
       <c r="H20" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I20" t="n">
-        <v>73.51263696704001</v>
+        <v>73.51263696704002</v>
       </c>
       <c r="J20" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L20" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M20" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N20" t="n">
-        <v>340.2384695057743</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O20" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P20" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R20" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S20" t="n">
-        <v>43.45163646680304</v>
+        <v>43.45163646680305</v>
       </c>
       <c r="T20" t="n">
-        <v>8.347099885175215</v>
+        <v>8.347099885175219</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1525455147490615</v>
+        <v>0.1525455147490616</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H21" t="n">
-        <v>9.853351926888168</v>
+        <v>9.853351926888172</v>
       </c>
       <c r="I21" t="n">
-        <v>35.1266179046649</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J21" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743782</v>
       </c>
       <c r="K21" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L21" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M21" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N21" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O21" t="n">
-        <v>242.7405912706187</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P21" t="n">
-        <v>194.820724883223</v>
+        <v>167.3927270171068</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R21" t="n">
-        <v>35.91625730056421</v>
+        <v>63.34425516667982</v>
       </c>
       <c r="S21" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T21" t="n">
-        <v>4.112275395463316</v>
+        <v>4.112275395463317</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06712092593248072</v>
+        <v>0.06712092593248074</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8553333293690981</v>
+        <v>0.8553333293690984</v>
       </c>
       <c r="H22" t="n">
-        <v>7.60469087384526</v>
+        <v>7.604690873845263</v>
       </c>
       <c r="I22" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J22" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K22" t="n">
-        <v>99.37418135760974</v>
+        <v>99.37418135760977</v>
       </c>
       <c r="L22" t="n">
         <v>127.1647388045658</v>
@@ -32648,22 +32648,22 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P22" t="n">
-        <v>103.4486783084225</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.62250269835239</v>
+        <v>71.62250269835242</v>
       </c>
       <c r="R22" t="n">
-        <v>38.45889679145053</v>
+        <v>38.45889679145054</v>
       </c>
       <c r="S22" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T22" t="n">
-        <v>3.654606043667964</v>
+        <v>3.654606043667965</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0466545452383145</v>
+        <v>0.04665454523831451</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,19 +32700,19 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.906818934363269</v>
+        <v>1.90681893436327</v>
       </c>
       <c r="H23" t="n">
         <v>19.52820941154784</v>
       </c>
       <c r="I23" t="n">
-        <v>73.51263696704001</v>
+        <v>73.51263696704002</v>
       </c>
       <c r="J23" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L23" t="n">
         <v>300.9103289845319</v>
@@ -32721,7 +32721,7 @@
         <v>334.8207202085147</v>
       </c>
       <c r="N23" t="n">
-        <v>340.2384695057743</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O23" t="n">
         <v>321.2775387271996</v>
@@ -32736,13 +32736,13 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S23" t="n">
-        <v>43.45163646680304</v>
+        <v>43.45163646680305</v>
       </c>
       <c r="T23" t="n">
-        <v>8.347099885175215</v>
+        <v>8.347099885175219</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1525455147490615</v>
+        <v>0.1525455147490616</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H24" t="n">
-        <v>9.853351926888168</v>
+        <v>9.853351926888172</v>
       </c>
       <c r="I24" t="n">
-        <v>35.1266179046649</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J24" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743782</v>
       </c>
       <c r="K24" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L24" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M24" t="n">
-        <v>231.077061541845</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N24" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O24" t="n">
-        <v>242.7405912706187</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P24" t="n">
-        <v>194.820724883223</v>
+        <v>194.8207248832231</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.2324952225946</v>
+        <v>102.8044973564784</v>
       </c>
       <c r="R24" t="n">
-        <v>63.34425516667981</v>
+        <v>63.34425516667982</v>
       </c>
       <c r="S24" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T24" t="n">
-        <v>4.112275395463316</v>
+        <v>4.112275395463317</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06712092593248073</v>
+        <v>0.06712092593248074</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8553333293690982</v>
+        <v>0.8553333293690984</v>
       </c>
       <c r="H25" t="n">
-        <v>7.604690873845261</v>
+        <v>7.604690873845263</v>
       </c>
       <c r="I25" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J25" t="n">
-        <v>60.47206638639524</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K25" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760977</v>
       </c>
       <c r="L25" t="n">
         <v>127.1647388045658</v>
@@ -32885,22 +32885,22 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P25" t="n">
-        <v>103.4486783084225</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.62250269835241</v>
+        <v>71.62250269835242</v>
       </c>
       <c r="R25" t="n">
-        <v>38.45889679145053</v>
+        <v>38.45889679145054</v>
       </c>
       <c r="S25" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T25" t="n">
-        <v>3.654606043667964</v>
+        <v>3.654606043667965</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0466545452383145</v>
+        <v>0.04665454523831451</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,19 +32937,19 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.906818934363269</v>
+        <v>1.90681893436327</v>
       </c>
       <c r="H26" t="n">
         <v>19.52820941154784</v>
       </c>
       <c r="I26" t="n">
-        <v>73.51263696704001</v>
+        <v>73.51263696704002</v>
       </c>
       <c r="J26" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K26" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L26" t="n">
         <v>300.9103289845319</v>
@@ -32958,7 +32958,7 @@
         <v>334.8207202085147</v>
       </c>
       <c r="N26" t="n">
-        <v>340.2384695057743</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O26" t="n">
         <v>321.2775387271996</v>
@@ -32973,13 +32973,13 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S26" t="n">
-        <v>43.45163646680304</v>
+        <v>43.45163646680305</v>
       </c>
       <c r="T26" t="n">
-        <v>8.347099885175215</v>
+        <v>8.347099885175219</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1525455147490615</v>
+        <v>0.1525455147490616</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,46 +33019,46 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H27" t="n">
-        <v>9.853351926888168</v>
+        <v>9.853351926888172</v>
       </c>
       <c r="I27" t="n">
-        <v>7.698620038549279</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J27" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743782</v>
       </c>
       <c r="K27" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L27" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M27" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N27" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O27" t="n">
-        <v>242.7405912706187</v>
+        <v>215.3125934045026</v>
       </c>
       <c r="P27" t="n">
-        <v>194.820724883223</v>
+        <v>194.8207248832231</v>
       </c>
       <c r="Q27" t="n">
         <v>130.2324952225946</v>
       </c>
       <c r="R27" t="n">
-        <v>63.34425516667981</v>
+        <v>63.34425516667982</v>
       </c>
       <c r="S27" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T27" t="n">
-        <v>4.112275395463316</v>
+        <v>4.112275395463317</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06712092593248073</v>
+        <v>0.06712092593248074</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8553333293690982</v>
+        <v>0.8553333293690984</v>
       </c>
       <c r="H28" t="n">
-        <v>7.604690873845261</v>
+        <v>7.604690873845263</v>
       </c>
       <c r="I28" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J28" t="n">
-        <v>60.47206638639524</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K28" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760977</v>
       </c>
       <c r="L28" t="n">
         <v>127.1647388045658</v>
@@ -33122,22 +33122,22 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P28" t="n">
-        <v>103.4486783084225</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.62250269835241</v>
+        <v>71.62250269835242</v>
       </c>
       <c r="R28" t="n">
-        <v>38.45889679145053</v>
+        <v>38.45889679145054</v>
       </c>
       <c r="S28" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T28" t="n">
-        <v>3.654606043667964</v>
+        <v>3.654606043667965</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0466545452383145</v>
+        <v>0.04665454523831451</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,19 +33174,19 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.906818934363269</v>
+        <v>1.90681893436327</v>
       </c>
       <c r="H29" t="n">
         <v>19.52820941154784</v>
       </c>
       <c r="I29" t="n">
-        <v>73.51263696704001</v>
+        <v>73.51263696704002</v>
       </c>
       <c r="J29" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K29" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L29" t="n">
         <v>300.9103289845319</v>
@@ -33195,7 +33195,7 @@
         <v>334.8207202085147</v>
       </c>
       <c r="N29" t="n">
-        <v>340.2384695057743</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O29" t="n">
         <v>321.2775387271996</v>
@@ -33210,13 +33210,13 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S29" t="n">
-        <v>43.45163646680304</v>
+        <v>43.45163646680305</v>
       </c>
       <c r="T29" t="n">
-        <v>8.347099885175215</v>
+        <v>8.347099885175219</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1525455147490615</v>
+        <v>0.1525455147490616</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33256,46 +33256,46 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H30" t="n">
-        <v>9.853351926888168</v>
+        <v>9.853351926888172</v>
       </c>
       <c r="I30" t="n">
-        <v>7.698620038549279</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J30" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743782</v>
       </c>
       <c r="K30" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L30" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M30" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N30" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O30" t="n">
-        <v>242.7405912706187</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P30" t="n">
-        <v>194.820724883223</v>
+        <v>194.8207248832231</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.2324952225946</v>
+        <v>102.8044973564784</v>
       </c>
       <c r="R30" t="n">
-        <v>63.34425516667981</v>
+        <v>63.34425516667982</v>
       </c>
       <c r="S30" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T30" t="n">
-        <v>4.112275395463316</v>
+        <v>4.112275395463317</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06712092593248073</v>
+        <v>0.06712092593248074</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8553333293690982</v>
+        <v>0.8553333293690984</v>
       </c>
       <c r="H31" t="n">
-        <v>7.604690873845261</v>
+        <v>7.604690873845263</v>
       </c>
       <c r="I31" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J31" t="n">
-        <v>60.47206638639524</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K31" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760977</v>
       </c>
       <c r="L31" t="n">
         <v>127.1647388045658</v>
@@ -33359,22 +33359,22 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P31" t="n">
-        <v>103.4486783084225</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.62250269835241</v>
+        <v>71.62250269835242</v>
       </c>
       <c r="R31" t="n">
-        <v>38.45889679145053</v>
+        <v>38.45889679145054</v>
       </c>
       <c r="S31" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T31" t="n">
-        <v>3.654606043667964</v>
+        <v>3.654606043667965</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0466545452383145</v>
+        <v>0.04665454523831451</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,19 +33411,19 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.906818934363269</v>
+        <v>1.90681893436327</v>
       </c>
       <c r="H32" t="n">
         <v>19.52820941154784</v>
       </c>
       <c r="I32" t="n">
-        <v>73.51263696704001</v>
+        <v>73.51263696704002</v>
       </c>
       <c r="J32" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L32" t="n">
         <v>300.9103289845319</v>
@@ -33432,7 +33432,7 @@
         <v>334.8207202085147</v>
       </c>
       <c r="N32" t="n">
-        <v>340.2384695057743</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O32" t="n">
         <v>321.2775387271996</v>
@@ -33447,13 +33447,13 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S32" t="n">
-        <v>43.45163646680304</v>
+        <v>43.45163646680305</v>
       </c>
       <c r="T32" t="n">
-        <v>8.347099885175215</v>
+        <v>8.347099885175219</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1525455147490615</v>
+        <v>0.1525455147490616</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33493,46 +33493,46 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H33" t="n">
-        <v>9.853351926888168</v>
+        <v>9.853351926888172</v>
       </c>
       <c r="I33" t="n">
-        <v>7.698620038549279</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J33" t="n">
-        <v>96.39012436743779</v>
+        <v>68.9621265013219</v>
       </c>
       <c r="K33" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L33" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M33" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N33" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O33" t="n">
-        <v>242.7405912706187</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P33" t="n">
-        <v>194.820724883223</v>
+        <v>194.8207248832231</v>
       </c>
       <c r="Q33" t="n">
         <v>130.2324952225946</v>
       </c>
       <c r="R33" t="n">
-        <v>63.34425516667981</v>
+        <v>63.34425516667982</v>
       </c>
       <c r="S33" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T33" t="n">
-        <v>4.112275395463316</v>
+        <v>4.112275395463317</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06712092593248073</v>
+        <v>0.06712092593248074</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8553333293690982</v>
+        <v>0.8553333293690984</v>
       </c>
       <c r="H34" t="n">
-        <v>7.604690873845261</v>
+        <v>7.604690873845263</v>
       </c>
       <c r="I34" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J34" t="n">
-        <v>60.47206638639524</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K34" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760977</v>
       </c>
       <c r="L34" t="n">
         <v>127.1647388045658</v>
@@ -33596,22 +33596,22 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P34" t="n">
-        <v>103.4486783084225</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.62250269835241</v>
+        <v>71.62250269835242</v>
       </c>
       <c r="R34" t="n">
-        <v>38.45889679145053</v>
+        <v>38.45889679145054</v>
       </c>
       <c r="S34" t="n">
         <v>14.90612720364146</v>
       </c>
       <c r="T34" t="n">
-        <v>3.654606043667964</v>
+        <v>3.654606043667965</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0466545452383145</v>
+        <v>0.04665454523831451</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33660,7 +33660,7 @@
         <v>161.8388735304147</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L35" t="n">
         <v>300.9103289845319</v>
@@ -33687,10 +33687,10 @@
         <v>43.45163646680305</v>
       </c>
       <c r="T35" t="n">
-        <v>8.347099885175217</v>
+        <v>8.347099885175219</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1525455147490615</v>
+        <v>0.1525455147490616</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33730,19 +33730,19 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H36" t="n">
-        <v>9.85335192688817</v>
+        <v>9.853351926888172</v>
       </c>
       <c r="I36" t="n">
-        <v>7.698620038548768</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J36" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743782</v>
       </c>
       <c r="K36" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L36" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M36" t="n">
         <v>258.5050594079607</v>
@@ -33751,16 +33751,16 @@
         <v>265.3469191246783</v>
       </c>
       <c r="O36" t="n">
-        <v>242.7405912706187</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P36" t="n">
-        <v>194.820724883223</v>
+        <v>194.8207248832231</v>
       </c>
       <c r="Q36" t="n">
         <v>130.2324952225946</v>
       </c>
       <c r="R36" t="n">
-        <v>63.34425516667982</v>
+        <v>35.91625730056398</v>
       </c>
       <c r="S36" t="n">
         <v>18.95047475493704</v>
@@ -33769,7 +33769,7 @@
         <v>4.112275395463317</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06712092593248073</v>
+        <v>0.06712092593248074</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8553333293690983</v>
+        <v>0.8553333293690984</v>
       </c>
       <c r="H37" t="n">
-        <v>7.604690873845262</v>
+        <v>7.604690873845263</v>
       </c>
       <c r="I37" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J37" t="n">
-        <v>60.47206638639525</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K37" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760977</v>
       </c>
       <c r="L37" t="n">
         <v>127.1647388045658</v>
@@ -33833,13 +33833,13 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P37" t="n">
-        <v>103.4486783084225</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.62250269835241</v>
+        <v>71.62250269835242</v>
       </c>
       <c r="R37" t="n">
-        <v>38.45889679145053</v>
+        <v>38.45889679145054</v>
       </c>
       <c r="S37" t="n">
         <v>14.90612720364146</v>
@@ -33897,7 +33897,7 @@
         <v>161.8388735304147</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L38" t="n">
         <v>300.9103289845319</v>
@@ -33924,10 +33924,10 @@
         <v>43.45163646680305</v>
       </c>
       <c r="T38" t="n">
-        <v>8.347099885175217</v>
+        <v>8.347099885175219</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1525455147490615</v>
+        <v>0.1525455147490616</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,19 +33967,19 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H39" t="n">
-        <v>9.85335192688817</v>
+        <v>9.853351926888172</v>
       </c>
       <c r="I39" t="n">
-        <v>7.698620038548768</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J39" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743782</v>
       </c>
       <c r="K39" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L39" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M39" t="n">
         <v>258.5050594079607</v>
@@ -33988,16 +33988,16 @@
         <v>265.3469191246783</v>
       </c>
       <c r="O39" t="n">
-        <v>242.7405912706187</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P39" t="n">
-        <v>194.820724883223</v>
+        <v>194.8207248832231</v>
       </c>
       <c r="Q39" t="n">
         <v>130.2324952225946</v>
       </c>
       <c r="R39" t="n">
-        <v>63.34425516667982</v>
+        <v>35.91625730056398</v>
       </c>
       <c r="S39" t="n">
         <v>18.95047475493704</v>
@@ -34006,7 +34006,7 @@
         <v>4.112275395463317</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06712092593248073</v>
+        <v>0.06712092593248074</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8553333293690983</v>
+        <v>0.8553333293690984</v>
       </c>
       <c r="H40" t="n">
-        <v>7.604690873845262</v>
+        <v>7.604690873845263</v>
       </c>
       <c r="I40" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J40" t="n">
-        <v>60.47206638639525</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K40" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760977</v>
       </c>
       <c r="L40" t="n">
         <v>127.1647388045658</v>
@@ -34070,13 +34070,13 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P40" t="n">
-        <v>103.4486783084225</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.62250269835241</v>
+        <v>71.62250269835242</v>
       </c>
       <c r="R40" t="n">
-        <v>38.45889679145053</v>
+        <v>38.45889679145054</v>
       </c>
       <c r="S40" t="n">
         <v>14.90612720364146</v>
@@ -34134,7 +34134,7 @@
         <v>161.8388735304147</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L41" t="n">
         <v>300.9103289845319</v>
@@ -34161,10 +34161,10 @@
         <v>43.45163646680305</v>
       </c>
       <c r="T41" t="n">
-        <v>8.347099885175217</v>
+        <v>8.347099885175219</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1525455147490615</v>
+        <v>0.1525455147490616</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,19 +34204,19 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H42" t="n">
-        <v>9.85335192688817</v>
+        <v>9.853351926888172</v>
       </c>
       <c r="I42" t="n">
-        <v>7.698620038548768</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J42" t="n">
-        <v>96.39012436743781</v>
+        <v>68.96212650132158</v>
       </c>
       <c r="K42" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L42" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M42" t="n">
         <v>258.5050594079607</v>
@@ -34225,10 +34225,10 @@
         <v>265.3469191246783</v>
       </c>
       <c r="O42" t="n">
-        <v>242.7405912706187</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P42" t="n">
-        <v>194.820724883223</v>
+        <v>194.8207248832231</v>
       </c>
       <c r="Q42" t="n">
         <v>130.2324952225946</v>
@@ -34243,7 +34243,7 @@
         <v>4.112275395463317</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06712092593248073</v>
+        <v>0.06712092593248074</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8553333293690983</v>
+        <v>0.8553333293690984</v>
       </c>
       <c r="H43" t="n">
-        <v>7.604690873845262</v>
+        <v>7.604690873845263</v>
       </c>
       <c r="I43" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J43" t="n">
-        <v>60.47206638639525</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K43" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760977</v>
       </c>
       <c r="L43" t="n">
         <v>127.1647388045658</v>
@@ -34307,13 +34307,13 @@
         <v>120.8974782275522</v>
       </c>
       <c r="P43" t="n">
-        <v>103.4486783084225</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.62250269835241</v>
+        <v>71.62250269835242</v>
       </c>
       <c r="R43" t="n">
-        <v>38.45889679145053</v>
+        <v>38.45889679145054</v>
       </c>
       <c r="S43" t="n">
         <v>14.90612720364146</v>
@@ -34362,46 +34362,46 @@
         <v>1.90681893436327</v>
       </c>
       <c r="H44" t="n">
-        <v>19.52820941154784</v>
+        <v>19.52820941154785</v>
       </c>
       <c r="I44" t="n">
-        <v>73.51263696704002</v>
+        <v>73.51263696704004</v>
       </c>
       <c r="J44" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L44" t="n">
-        <v>300.9103289845319</v>
+        <v>300.910328984532</v>
       </c>
       <c r="M44" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N44" t="n">
         <v>340.2384695057744</v>
       </c>
       <c r="O44" t="n">
-        <v>321.2775387271996</v>
+        <v>321.2775387271997</v>
       </c>
       <c r="P44" t="n">
-        <v>274.2029462851063</v>
+        <v>274.2029462851064</v>
       </c>
       <c r="Q44" t="n">
         <v>205.9149931982217</v>
       </c>
       <c r="R44" t="n">
-        <v>119.7792148856968</v>
+        <v>119.7792148856969</v>
       </c>
       <c r="S44" t="n">
-        <v>43.45163646680305</v>
+        <v>43.45163646680306</v>
       </c>
       <c r="T44" t="n">
-        <v>8.347099885175217</v>
+        <v>8.347099885175219</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1525455147490615</v>
+        <v>0.1525455147490616</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34441,46 +34441,46 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H45" t="n">
-        <v>9.85335192688817</v>
+        <v>9.853351926888172</v>
       </c>
       <c r="I45" t="n">
-        <v>35.12661790466491</v>
+        <v>35.12661790466492</v>
       </c>
       <c r="J45" t="n">
-        <v>68.96212650132225</v>
+        <v>96.39012436743783</v>
       </c>
       <c r="K45" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L45" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M45" t="n">
         <v>258.5050594079607</v>
       </c>
       <c r="N45" t="n">
-        <v>265.3469191246783</v>
+        <v>237.9189212585616</v>
       </c>
       <c r="O45" t="n">
-        <v>242.7405912706187</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P45" t="n">
-        <v>194.820724883223</v>
+        <v>194.8207248832231</v>
       </c>
       <c r="Q45" t="n">
         <v>130.2324952225946</v>
       </c>
       <c r="R45" t="n">
-        <v>63.34425516667982</v>
+        <v>63.34425516667984</v>
       </c>
       <c r="S45" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T45" t="n">
-        <v>4.112275395463317</v>
+        <v>4.112275395463318</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06712092593248073</v>
+        <v>0.06712092593248076</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8553333293690983</v>
+        <v>0.8553333293690984</v>
       </c>
       <c r="H46" t="n">
-        <v>7.604690873845262</v>
+        <v>7.604690873845263</v>
       </c>
       <c r="I46" t="n">
-        <v>25.72220594139071</v>
+        <v>25.72220594139072</v>
       </c>
       <c r="J46" t="n">
-        <v>60.47206638639525</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K46" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760979</v>
       </c>
       <c r="L46" t="n">
         <v>127.1647388045658</v>
@@ -34541,25 +34541,25 @@
         <v>130.8893266660913</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8974782275522</v>
+        <v>120.8974782275523</v>
       </c>
       <c r="P46" t="n">
-        <v>103.4486783084225</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q46" t="n">
-        <v>71.62250269835241</v>
+        <v>71.62250269835243</v>
       </c>
       <c r="R46" t="n">
-        <v>38.45889679145053</v>
+        <v>38.45889679145055</v>
       </c>
       <c r="S46" t="n">
-        <v>14.90612720364146</v>
+        <v>14.90612720364147</v>
       </c>
       <c r="T46" t="n">
         <v>3.654606043667965</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04665454523831451</v>
+        <v>0.04665454523831452</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34689,7 +34689,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-8.894156859099282e-13</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-9.479473479747754e-13</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-1.837363033884704e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-9.278683321117754e-13</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34865,13 +34865,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>161.8388735304147</v>
       </c>
       <c r="K11" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L11" t="n">
         <v>300.9103289845319</v>
@@ -35427,7 +35427,7 @@
         <v>321.2775387271995</v>
       </c>
       <c r="P11" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q11" t="n">
         <v>205.9149931982215</v>
@@ -35491,16 +35491,16 @@
         <v>96.39012436743779</v>
       </c>
       <c r="K12" t="n">
-        <v>164.7460753370761</v>
+        <v>137.31807747096</v>
       </c>
       <c r="L12" t="n">
         <v>221.5214292191638</v>
       </c>
       <c r="M12" t="n">
-        <v>258.5050594079607</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N12" t="n">
-        <v>237.918921258562</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O12" t="n">
         <v>242.7405912706188</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>60.47206638639526</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K13" t="n">
-        <v>99.37418135760976</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L13" t="n">
-        <v>127.1647388045658</v>
+        <v>549.5989628126073</v>
       </c>
       <c r="M13" t="n">
-        <v>598.2025056219346</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N13" t="n">
-        <v>577.6153904616921</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O13" t="n">
-        <v>368.4652378701328</v>
+        <v>322.0024843049198</v>
       </c>
       <c r="P13" t="n">
         <v>454.4657429249294</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R13" t="n">
         <v>17.2552537097687</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>73.10001548790861</v>
+        <v>73.10001548790862</v>
       </c>
       <c r="J14" t="n">
         <v>161.8388735304147</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L14" t="n">
-        <v>300.910328984532</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M14" t="n">
         <v>334.8207202085148</v>
       </c>
       <c r="N14" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O14" t="n">
-        <v>321.2775387271993</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P14" t="n">
         <v>274.2029462851062</v>
@@ -35725,7 +35725,7 @@
         <v>35.1266179046649</v>
       </c>
       <c r="J15" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K15" t="n">
         <v>164.7460753370761</v>
@@ -35734,10 +35734,10 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M15" t="n">
-        <v>258.5050594079606</v>
+        <v>231.0770615418445</v>
       </c>
       <c r="N15" t="n">
-        <v>237.9189212585625</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O15" t="n">
         <v>242.7405912706188</v>
@@ -35746,7 +35746,7 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225947</v>
       </c>
       <c r="R15" t="n">
         <v>63.34425516667989</v>
@@ -35825,7 +35825,7 @@
         <v>103.4486783084226</v>
       </c>
       <c r="Q16" t="n">
-        <v>158.8447669670641</v>
+        <v>158.8447669670645</v>
       </c>
       <c r="R16" t="n">
         <v>17.2552537097687</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>73.10001548790861</v>
+        <v>73.10001548790862</v>
       </c>
       <c r="J17" t="n">
-        <v>161.8388735304145</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L17" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M17" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N17" t="n">
         <v>340.2384695057744</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>35.1266179046649</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J18" t="n">
         <v>96.39012436743779</v>
@@ -35971,10 +35971,10 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M18" t="n">
-        <v>258.5050594079606</v>
+        <v>231.0770615418445</v>
       </c>
       <c r="N18" t="n">
-        <v>237.9189212585625</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O18" t="n">
         <v>242.7405912706188</v>
@@ -35983,7 +35983,7 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225947</v>
       </c>
       <c r="R18" t="n">
         <v>63.34425516667989</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K19" t="n">
-        <v>99.37418135760976</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L19" t="n">
         <v>549.5989628126074</v>
       </c>
       <c r="M19" t="n">
-        <v>134.077387257376</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N19" t="n">
-        <v>577.6153904616918</v>
+        <v>130.8893266660909</v>
       </c>
       <c r="O19" t="n">
-        <v>544.8058107788465</v>
+        <v>544.8058107788468</v>
       </c>
       <c r="P19" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249296</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.5356613235813</v>
+        <v>106.16509544566</v>
       </c>
       <c r="R19" t="n">
         <v>17.2552537097687</v>
@@ -36117,25 +36117,25 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>73.10001548790861</v>
+        <v>73.10001548790862</v>
       </c>
       <c r="J20" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L20" t="n">
-        <v>300.9103289845318</v>
+        <v>300.910328984532</v>
       </c>
       <c r="M20" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N20" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O20" t="n">
-        <v>321.2775387271997</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P20" t="n">
         <v>274.2029462851065</v>
@@ -36144,7 +36144,7 @@
         <v>205.9149931982215</v>
       </c>
       <c r="R20" t="n">
-        <v>119.7792148856965</v>
+        <v>119.779214885697</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>35.1266179046649</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J21" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743782</v>
       </c>
       <c r="K21" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L21" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M21" t="n">
         <v>258.5050594079606</v>
@@ -36217,13 +36217,13 @@
         <v>242.7405912706188</v>
       </c>
       <c r="P21" t="n">
-        <v>194.820724883223</v>
+        <v>167.3927270171068</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225947</v>
       </c>
       <c r="R21" t="n">
-        <v>35.91625730056421</v>
+        <v>63.34425516667989</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K22" t="n">
-        <v>376.9079738537063</v>
+        <v>99.37418135760979</v>
       </c>
       <c r="L22" t="n">
-        <v>549.5989628126072</v>
+        <v>301.8412305123588</v>
       </c>
       <c r="M22" t="n">
-        <v>422.6366207738238</v>
+        <v>598.2025056219347</v>
       </c>
       <c r="N22" t="n">
-        <v>130.8893266660912</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8974782275523</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P22" t="n">
-        <v>454.4657429249294</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q22" t="n">
-        <v>241.5141944805064</v>
+        <v>71.62250269835249</v>
       </c>
       <c r="R22" t="n">
-        <v>17.25525370976869</v>
+        <v>17.25525370976871</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>73.10001548790861</v>
+        <v>73.10001548790862</v>
       </c>
       <c r="J23" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L23" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M23" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N23" t="n">
         <v>340.2384695057744</v>
       </c>
       <c r="O23" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271997</v>
       </c>
       <c r="P23" t="n">
         <v>274.2029462851065</v>
       </c>
       <c r="Q23" t="n">
-        <v>748.1890527285473</v>
+        <v>748.1890527285468</v>
       </c>
       <c r="R23" t="n">
-        <v>165.3938857178741</v>
+        <v>165.3938857178737</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>35.12661790466491</v>
+        <v>35.12661790466492</v>
       </c>
       <c r="J24" t="n">
-        <v>96.39012436743778</v>
+        <v>96.39012436743783</v>
       </c>
       <c r="K24" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L24" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M24" t="n">
-        <v>231.077061541845</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N24" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246784</v>
       </c>
       <c r="O24" t="n">
         <v>242.7405912706188</v>
@@ -36457,7 +36457,7 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.2324952225945</v>
+        <v>102.8044973564784</v>
       </c>
       <c r="R24" t="n">
         <v>63.34425516667989</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>60.47206638639524</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K25" t="n">
         <v>376.9079738537064</v>
       </c>
       <c r="L25" t="n">
-        <v>549.5989628126073</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M25" t="n">
-        <v>598.2025056219345</v>
+        <v>598.2025056219347</v>
       </c>
       <c r="N25" t="n">
-        <v>130.8893266660912</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O25" t="n">
-        <v>533.220323741944</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P25" t="n">
-        <v>454.4657429249296</v>
+        <v>331.1341886613864</v>
       </c>
       <c r="Q25" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R25" t="n">
-        <v>17.2552537097687</v>
+        <v>17.25525370976871</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>73.10001548790861</v>
+        <v>73.10001548790862</v>
       </c>
       <c r="J26" t="n">
-        <v>207.4535443625922</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K26" t="n">
-        <v>242.5545190220119</v>
+        <v>748.1890527285474</v>
       </c>
       <c r="L26" t="n">
-        <v>300.9103289845319</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M26" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N26" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O26" t="n">
-        <v>321.2775387271995</v>
+        <v>403.5317353831681</v>
       </c>
       <c r="P26" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q26" t="n">
-        <v>748.1890527285473</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R26" t="n">
         <v>119.779214885697</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.698620038549279</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J27" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K27" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L27" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M27" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N27" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246784</v>
       </c>
       <c r="O27" t="n">
-        <v>242.7405912706188</v>
+        <v>215.3125934045026</v>
       </c>
       <c r="P27" t="n">
         <v>194.820724883223</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K28" t="n">
-        <v>376.9079738537064</v>
+        <v>99.37418135760977</v>
       </c>
       <c r="L28" t="n">
-        <v>549.5989628126072</v>
+        <v>538.7128962583564</v>
       </c>
       <c r="M28" t="n">
-        <v>499.1627911459514</v>
+        <v>598.2025056219347</v>
       </c>
       <c r="N28" t="n">
-        <v>130.8893266660912</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O28" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P28" t="n">
-        <v>454.4657429249296</v>
+        <v>454.4657429249291</v>
       </c>
       <c r="Q28" t="n">
-        <v>241.5141944805064</v>
+        <v>71.62250269835249</v>
       </c>
       <c r="R28" t="n">
-        <v>17.2552537097687</v>
+        <v>17.25525370976871</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>73.10001548790861</v>
+        <v>73.10001548790862</v>
       </c>
       <c r="J29" t="n">
-        <v>207.4535443625922</v>
+        <v>165.4965797031302</v>
       </c>
       <c r="K29" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L29" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M29" t="n">
-        <v>334.8207202085147</v>
+        <v>748.1890527285469</v>
       </c>
       <c r="N29" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O29" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P29" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q29" t="n">
-        <v>748.1890527285473</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R29" t="n">
-        <v>119.779214885697</v>
+        <v>290.6419065554514</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7.698620038549279</v>
+        <v>35.12661790466492</v>
       </c>
       <c r="J30" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743783</v>
       </c>
       <c r="K30" t="n">
         <v>164.7460753370761</v>
       </c>
       <c r="L30" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M30" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N30" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246784</v>
       </c>
       <c r="O30" t="n">
         <v>242.7405912706188</v>
@@ -36931,7 +36931,7 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.2324952225945</v>
+        <v>102.8044973564784</v>
       </c>
       <c r="R30" t="n">
         <v>63.34425516667989</v>
@@ -36992,13 +36992,13 @@
         <v>147.9262938254759</v>
       </c>
       <c r="K31" t="n">
-        <v>182.1592601986292</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L31" t="n">
-        <v>549.5989628126073</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M31" t="n">
-        <v>598.2025056219346</v>
+        <v>598.2025056219347</v>
       </c>
       <c r="N31" t="n">
         <v>577.615390461692</v>
@@ -37007,13 +37007,13 @@
         <v>544.8058107788465</v>
       </c>
       <c r="P31" t="n">
-        <v>103.4486783084226</v>
+        <v>331.1341886613864</v>
       </c>
       <c r="Q31" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R31" t="n">
-        <v>17.2552537097687</v>
+        <v>17.25525370976871</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,19 +37065,19 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>73.10001548790861</v>
+        <v>73.10001548790862</v>
       </c>
       <c r="J32" t="n">
-        <v>165.4965797031308</v>
+        <v>578.8649122231624</v>
       </c>
       <c r="K32" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L32" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M32" t="n">
-        <v>748.189052728547</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N32" t="n">
         <v>340.2384695057744</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.698620038549279</v>
+        <v>35.12661790466492</v>
       </c>
       <c r="J33" t="n">
-        <v>96.39012436743779</v>
+        <v>68.9621265013219</v>
       </c>
       <c r="K33" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L33" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M33" t="n">
         <v>258.5050594079606</v>
       </c>
       <c r="N33" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O33" t="n">
         <v>242.7405912706188</v>
@@ -37232,25 +37232,25 @@
         <v>376.9079738537064</v>
       </c>
       <c r="L34" t="n">
-        <v>549.5989628126072</v>
+        <v>354.8502491575296</v>
       </c>
       <c r="M34" t="n">
-        <v>476.3450599016448</v>
+        <v>598.2025056219347</v>
       </c>
       <c r="N34" t="n">
         <v>577.615390461692</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8974782275523</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P34" t="n">
-        <v>454.4657429249296</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q34" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R34" t="n">
-        <v>17.2552537097687</v>
+        <v>17.25525370976871</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>73.10001548790862</v>
       </c>
       <c r="J35" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304145</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L35" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M35" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N35" t="n">
         <v>340.2384695057744</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.698620038548768</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J36" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743782</v>
       </c>
       <c r="K36" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L36" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M36" t="n">
         <v>258.5050594079606</v>
       </c>
       <c r="N36" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O36" t="n">
         <v>242.7405912706188</v>
@@ -37405,10 +37405,10 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R36" t="n">
-        <v>63.34425516667989</v>
+        <v>35.91625730056398</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K37" t="n">
         <v>376.9079738537064</v>
       </c>
       <c r="L37" t="n">
-        <v>549.5989628126073</v>
+        <v>549.5989628126074</v>
       </c>
       <c r="M37" t="n">
         <v>134.0773872573759</v>
       </c>
       <c r="N37" t="n">
-        <v>259.1030648086712</v>
+        <v>130.8893266660914</v>
       </c>
       <c r="O37" t="n">
-        <v>544.8058107788465</v>
+        <v>544.8058107788468</v>
       </c>
       <c r="P37" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249291</v>
       </c>
       <c r="Q37" t="n">
-        <v>241.5141944805064</v>
+        <v>106.16509544566</v>
       </c>
       <c r="R37" t="n">
-        <v>17.2552537097687</v>
+        <v>17.25525370976871</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>73.10001548790862</v>
       </c>
       <c r="J38" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304145</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L38" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M38" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N38" t="n">
         <v>340.2384695057744</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.698620038548768</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J39" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743782</v>
       </c>
       <c r="K39" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L39" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M39" t="n">
         <v>258.5050594079606</v>
       </c>
       <c r="N39" t="n">
-        <v>265.3469191246783</v>
+        <v>265.3469191246782</v>
       </c>
       <c r="O39" t="n">
         <v>242.7405912706188</v>
@@ -37642,10 +37642,10 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.2324952225947</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R39" t="n">
-        <v>63.34425516667989</v>
+        <v>35.91625730056398</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37712,19 +37712,19 @@
         <v>134.0773872573759</v>
       </c>
       <c r="N40" t="n">
-        <v>130.8893266660909</v>
+        <v>130.8893266660914</v>
       </c>
       <c r="O40" t="n">
         <v>544.8058107788468</v>
       </c>
       <c r="P40" t="n">
-        <v>319.1166438900832</v>
+        <v>454.4657429249291</v>
       </c>
       <c r="Q40" t="n">
-        <v>241.5141944805064</v>
+        <v>106.16509544566</v>
       </c>
       <c r="R40" t="n">
-        <v>17.2552537097687</v>
+        <v>17.25525370976871</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>161.8388735304147</v>
       </c>
       <c r="K41" t="n">
-        <v>242.5545190220119</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L41" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M41" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N41" t="n">
         <v>340.2384695057744</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.698620038548768</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J42" t="n">
-        <v>96.39012436743781</v>
+        <v>68.96212650132158</v>
       </c>
       <c r="K42" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L42" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191639</v>
       </c>
       <c r="M42" t="n">
         <v>258.5050594079606</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>60.47206638639526</v>
+        <v>65.25686631203443</v>
       </c>
       <c r="K43" t="n">
-        <v>376.9079738537064</v>
+        <v>99.37418135760977</v>
       </c>
       <c r="L43" t="n">
         <v>127.1647388045658</v>
       </c>
       <c r="M43" t="n">
-        <v>134.077387257376</v>
+        <v>598.2025056219347</v>
       </c>
       <c r="N43" t="n">
-        <v>577.6153904616918</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O43" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P43" t="n">
-        <v>294.824804102524</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q43" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R43" t="n">
-        <v>17.2552537097687</v>
+        <v>17.25525370976871</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>73.10001548790862</v>
+        <v>73.10001548790864</v>
       </c>
       <c r="J44" t="n">
         <v>161.8388735304147</v>
@@ -38025,7 +38025,7 @@
         <v>300.9103289845319</v>
       </c>
       <c r="M44" t="n">
-        <v>334.8207202085146</v>
+        <v>334.820720208515</v>
       </c>
       <c r="N44" t="n">
         <v>340.2384695057744</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.12661790466495</v>
+        <v>35.12661790466492</v>
       </c>
       <c r="J45" t="n">
-        <v>68.96212650132225</v>
+        <v>96.39012436743783</v>
       </c>
       <c r="K45" t="n">
-        <v>164.7460753370761</v>
+        <v>164.7460753370762</v>
       </c>
       <c r="L45" t="n">
-        <v>221.5214292191638</v>
+        <v>221.521429219164</v>
       </c>
       <c r="M45" t="n">
         <v>258.5050594079607</v>
       </c>
       <c r="N45" t="n">
-        <v>265.3469191246782</v>
+        <v>237.9189212585616</v>
       </c>
       <c r="O45" t="n">
         <v>242.7405912706188</v>
       </c>
       <c r="P45" t="n">
-        <v>194.820724883223</v>
+        <v>194.8207248832232</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225947</v>
       </c>
       <c r="R45" t="n">
         <v>63.34425516667989</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.47206638639526</v>
+        <v>147.9262938254759</v>
       </c>
       <c r="K46" t="n">
-        <v>376.9079738537064</v>
+        <v>186.5964456263226</v>
       </c>
       <c r="L46" t="n">
-        <v>278.3240787854028</v>
+        <v>127.1647388045658</v>
       </c>
       <c r="M46" t="n">
-        <v>598.2025056219346</v>
+        <v>598.2025056219347</v>
       </c>
       <c r="N46" t="n">
         <v>577.615390461692</v>
       </c>
       <c r="O46" t="n">
-        <v>120.8974782275523</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P46" t="n">
         <v>103.4486783084226</v>
       </c>
       <c r="Q46" t="n">
-        <v>241.5141944805064</v>
+        <v>71.62250269835249</v>
       </c>
       <c r="R46" t="n">
-        <v>17.2552537097687</v>
+        <v>17.25525370976871</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
